--- a/docs/战斗掉落配表.xlsx
+++ b/docs/战斗掉落配表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3841" uniqueCount="718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3907" uniqueCount="730">
   <si>
     <t>战斗id</t>
   </si>
@@ -2195,6 +2195,54 @@
     <rPh sb="9" eb="10">
       <t>kun'nan</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10351039_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10351039_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10351039_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10351042_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10351042_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10351042_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10351045_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10351045_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10351045_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10351048_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10351048_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10351048_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2511,10 +2559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1251"/>
+  <dimension ref="A1:E1285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A639" workbookViewId="0">
-      <selection activeCell="A664" sqref="A664:B664"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="D166" sqref="D166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3041,7 +3089,7 @@
         <v>55</v>
       </c>
       <c r="C31">
-        <v>300104</v>
+        <v>300103</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -3058,7 +3106,7 @@
         <v>55</v>
       </c>
       <c r="C32">
-        <v>300106</v>
+        <v>300105</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -3075,7 +3123,7 @@
         <v>57</v>
       </c>
       <c r="C33">
-        <v>300106</v>
+        <v>300105</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -3092,7 +3140,7 @@
         <v>59</v>
       </c>
       <c r="C34">
-        <v>300104</v>
+        <v>300103</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -3125,8 +3173,8 @@
       <c r="B36" t="s">
         <v>61</v>
       </c>
-      <c r="C36" t="s">
-        <v>23</v>
+      <c r="C36">
+        <v>100001</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -3176,8 +3224,8 @@
       <c r="B39" t="s">
         <v>63</v>
       </c>
-      <c r="C39" t="s">
-        <v>64</v>
+      <c r="C39">
+        <v>100205</v>
       </c>
       <c r="D39" t="s">
         <v>24</v>
@@ -3194,7 +3242,7 @@
         <v>63</v>
       </c>
       <c r="C40">
-        <v>300107</v>
+        <v>300103</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -3296,7 +3344,7 @@
         <v>67</v>
       </c>
       <c r="C46">
-        <v>300109</v>
+        <v>300105</v>
       </c>
       <c r="D46">
         <v>5</v>
@@ -3327,7 +3375,7 @@
         <v>73</v>
       </c>
       <c r="C48">
-        <v>300104</v>
+        <v>300103</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -3412,7 +3460,7 @@
         <v>75</v>
       </c>
       <c r="C53">
-        <v>300104</v>
+        <v>300103</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -3463,7 +3511,7 @@
         <v>78</v>
       </c>
       <c r="C56">
-        <v>300102</v>
+        <v>300101</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -3514,7 +3562,7 @@
         <v>81</v>
       </c>
       <c r="C59">
-        <v>300102</v>
+        <v>300101</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -3701,7 +3749,7 @@
         <v>88</v>
       </c>
       <c r="C70">
-        <v>300107</v>
+        <v>300103</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -3769,7 +3817,7 @@
         <v>91</v>
       </c>
       <c r="C74">
-        <v>300109</v>
+        <v>300105</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -3837,7 +3885,7 @@
         <v>99</v>
       </c>
       <c r="C78">
-        <v>300108</v>
+        <v>300103</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -3854,7 +3902,7 @@
         <v>99</v>
       </c>
       <c r="C79">
-        <v>300110</v>
+        <v>300105</v>
       </c>
       <c r="D79">
         <v>1</v>
@@ -3956,7 +4004,7 @@
         <v>105</v>
       </c>
       <c r="C85">
-        <v>300102</v>
+        <v>300101</v>
       </c>
       <c r="D85">
         <v>1</v>
@@ -3973,7 +4021,7 @@
         <v>105</v>
       </c>
       <c r="C86">
-        <v>300108</v>
+        <v>300103</v>
       </c>
       <c r="D86">
         <v>1</v>
@@ -3990,7 +4038,7 @@
         <v>105</v>
       </c>
       <c r="C87">
-        <v>300126</v>
+        <v>300125</v>
       </c>
       <c r="D87">
         <v>1</v>
@@ -4109,7 +4157,7 @@
         <v>110</v>
       </c>
       <c r="C94">
-        <v>300102</v>
+        <v>300101</v>
       </c>
       <c r="D94">
         <v>1</v>
@@ -4279,7 +4327,7 @@
         <v>117</v>
       </c>
       <c r="C104">
-        <v>300108</v>
+        <v>300107</v>
       </c>
       <c r="D104">
         <v>1</v>
@@ -4296,7 +4344,7 @@
         <v>119</v>
       </c>
       <c r="C105">
-        <v>300108</v>
+        <v>300107</v>
       </c>
       <c r="D105">
         <v>1</v>
@@ -4313,7 +4361,7 @@
         <v>119</v>
       </c>
       <c r="C106">
-        <v>300102</v>
+        <v>300101</v>
       </c>
       <c r="D106">
         <v>1</v>
@@ -4483,7 +4531,7 @@
         <v>128</v>
       </c>
       <c r="C116">
-        <v>300102</v>
+        <v>300101</v>
       </c>
       <c r="D116">
         <v>1</v>
@@ -4500,7 +4548,7 @@
         <v>130</v>
       </c>
       <c r="C117">
-        <v>300104</v>
+        <v>300103</v>
       </c>
       <c r="D117">
         <v>1</v>
@@ -4517,7 +4565,7 @@
         <v>132</v>
       </c>
       <c r="C118">
-        <v>300108</v>
+        <v>300107</v>
       </c>
       <c r="D118">
         <v>1</v>
@@ -7634,7 +7682,7 @@
         <v>1</v>
       </c>
       <c r="E301">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
@@ -7889,7 +7937,7 @@
         <v>1</v>
       </c>
       <c r="E316">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.2">
@@ -8076,7 +8124,7 @@
         <v>1</v>
       </c>
       <c r="E327">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.2">
@@ -8841,7 +8889,7 @@
         <v>1</v>
       </c>
       <c r="E372">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.2">
@@ -11374,7 +11422,7 @@
         <v>1</v>
       </c>
       <c r="E521">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.2">
@@ -12666,7 +12714,7 @@
         <v>1</v>
       </c>
       <c r="E597">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="598" spans="1:5" x14ac:dyDescent="0.2">
@@ -13057,7 +13105,7 @@
         <v>1</v>
       </c>
       <c r="E620">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="621" spans="1:5" x14ac:dyDescent="0.2">
@@ -14978,7 +15026,7 @@
         <v>1</v>
       </c>
       <c r="E733">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="734" spans="1:5" x14ac:dyDescent="0.2">
@@ -15896,7 +15944,7 @@
         <v>1</v>
       </c>
       <c r="E787">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="788" spans="1:5" x14ac:dyDescent="0.2">
@@ -17103,7 +17151,7 @@
         <v>1</v>
       </c>
       <c r="E858">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="859" spans="1:5" x14ac:dyDescent="0.2">
@@ -17800,7 +17848,7 @@
         <v>1</v>
       </c>
       <c r="E899">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="900" spans="1:5" x14ac:dyDescent="0.2">
@@ -19075,7 +19123,7 @@
         <v>1</v>
       </c>
       <c r="E974">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="975" spans="1:5" x14ac:dyDescent="0.2">
@@ -20270,19 +20318,19 @@
     </row>
     <row r="1045" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1045" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B1045" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C1045">
-        <v>300103</v>
+        <v>300126</v>
       </c>
       <c r="D1045">
         <v>1</v>
       </c>
       <c r="E1045">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1046" spans="1:5" x14ac:dyDescent="0.2">
@@ -20293,13 +20341,13 @@
         <v>583</v>
       </c>
       <c r="C1046">
-        <v>300104</v>
+        <v>300103</v>
       </c>
       <c r="D1046">
         <v>1</v>
       </c>
       <c r="E1046">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1047" spans="1:5" x14ac:dyDescent="0.2">
@@ -20310,7 +20358,7 @@
         <v>583</v>
       </c>
       <c r="C1047">
-        <v>300113</v>
+        <v>300104</v>
       </c>
       <c r="D1047">
         <v>1</v>
@@ -20321,36 +20369,36 @@
     </row>
     <row r="1048" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1048" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B1048" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C1048">
-        <v>300103</v>
+        <v>300113</v>
       </c>
       <c r="D1048">
         <v>1</v>
       </c>
       <c r="E1048">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1049" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1049" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B1049" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C1049">
-        <v>300105</v>
+        <v>300126</v>
       </c>
       <c r="D1049">
         <v>1</v>
       </c>
       <c r="E1049">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1050" spans="1:5" x14ac:dyDescent="0.2">
@@ -20361,13 +20409,13 @@
         <v>585</v>
       </c>
       <c r="C1050">
-        <v>300106</v>
+        <v>300103</v>
       </c>
       <c r="D1050">
         <v>1</v>
       </c>
       <c r="E1050">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1051" spans="1:5" x14ac:dyDescent="0.2">
@@ -20378,41 +20426,41 @@
         <v>585</v>
       </c>
       <c r="C1051">
-        <v>300114</v>
+        <v>300105</v>
       </c>
       <c r="D1051">
         <v>1</v>
       </c>
       <c r="E1051">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1052" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1052" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B1052" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C1052">
-        <v>300107</v>
+        <v>300106</v>
       </c>
       <c r="D1052">
         <v>1</v>
       </c>
       <c r="E1052">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1053" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1053" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B1053" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C1053">
-        <v>300108</v>
+        <v>300114</v>
       </c>
       <c r="D1053">
         <v>1</v>
@@ -20423,149 +20471,149 @@
     </row>
     <row r="1054" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1054" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B1054" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C1054">
-        <v>300109</v>
+        <v>300126</v>
       </c>
       <c r="D1054">
         <v>1</v>
       </c>
       <c r="E1054">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1055" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1055" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B1055" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C1055">
-        <v>300108</v>
+        <v>300107</v>
       </c>
       <c r="D1055">
         <v>1</v>
       </c>
       <c r="E1055">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1056" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1056" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B1056" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C1056">
-        <v>300109</v>
+        <v>300108</v>
       </c>
       <c r="D1056">
         <v>1</v>
       </c>
       <c r="E1056">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1057" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1057" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B1057" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C1057">
-        <v>300110</v>
+        <v>300109</v>
       </c>
       <c r="D1057">
         <v>1</v>
       </c>
       <c r="E1057">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1058" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1058" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="B1058" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="C1058">
-        <v>300103</v>
+        <v>300126</v>
       </c>
       <c r="D1058">
         <v>1</v>
       </c>
       <c r="E1058">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1059" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1059" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B1059" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C1059">
-        <v>300107</v>
+        <v>300108</v>
       </c>
       <c r="D1059">
         <v>1</v>
       </c>
       <c r="E1059">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1060" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1060" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B1060" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C1060">
-        <v>300111</v>
+        <v>300109</v>
       </c>
       <c r="D1060">
         <v>1</v>
       </c>
       <c r="E1060">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1061" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1061" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B1061" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C1061">
-        <v>300101</v>
+        <v>300110</v>
       </c>
       <c r="D1061">
         <v>1</v>
       </c>
       <c r="E1061">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1062" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1062" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B1062" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C1062">
-        <v>300102</v>
+        <v>300126</v>
       </c>
       <c r="D1062">
         <v>1</v>
@@ -20576,13 +20624,13 @@
     </row>
     <row r="1063" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1063" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B1063" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C1063">
-        <v>300105</v>
+        <v>300103</v>
       </c>
       <c r="D1063">
         <v>1</v>
@@ -20593,13 +20641,13 @@
     </row>
     <row r="1064" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1064" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B1064" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C1064">
-        <v>300109</v>
+        <v>300107</v>
       </c>
       <c r="D1064">
         <v>1</v>
@@ -20610,98 +20658,98 @@
     </row>
     <row r="1065" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1065" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B1065" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C1065">
-        <v>300114</v>
+        <v>300111</v>
       </c>
       <c r="D1065">
         <v>1</v>
       </c>
       <c r="E1065">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1066" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1066" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="B1066" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="C1066">
-        <v>300107</v>
+        <v>300126</v>
       </c>
       <c r="D1066">
         <v>1</v>
       </c>
       <c r="E1066">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1067" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1067" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B1067" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C1067">
-        <v>300108</v>
+        <v>300101</v>
       </c>
       <c r="D1067">
         <v>1</v>
       </c>
       <c r="E1067">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1068" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1068" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B1068" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C1068">
-        <v>300109</v>
+        <v>300102</v>
       </c>
       <c r="D1068">
         <v>1</v>
       </c>
       <c r="E1068">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1069" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1069" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B1069" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C1069">
-        <v>300110</v>
+        <v>300105</v>
       </c>
       <c r="D1069">
         <v>1</v>
       </c>
       <c r="E1069">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1070" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1070" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="B1070" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="C1070">
-        <v>300103</v>
+        <v>300109</v>
       </c>
       <c r="D1070">
         <v>1</v>
@@ -20712,81 +20760,81 @@
     </row>
     <row r="1071" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1071" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="B1071" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="C1071">
-        <v>300104</v>
+        <v>300114</v>
       </c>
       <c r="D1071">
         <v>1</v>
       </c>
       <c r="E1071">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1072" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1072" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="B1072" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="C1072">
-        <v>300111</v>
+        <v>300126</v>
       </c>
       <c r="D1072">
         <v>1</v>
       </c>
       <c r="E1072">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1073" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1073" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B1073" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C1073">
-        <v>300112</v>
+        <v>300107</v>
       </c>
       <c r="D1073">
         <v>1</v>
       </c>
       <c r="E1073">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1074" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1074" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B1074" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C1074">
-        <v>300113</v>
+        <v>300108</v>
       </c>
       <c r="D1074">
         <v>1</v>
       </c>
       <c r="E1074">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1075" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1075" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B1075" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="C1075">
-        <v>300107</v>
+        <v>300109</v>
       </c>
       <c r="D1075">
         <v>1</v>
@@ -20797,13 +20845,13 @@
     </row>
     <row r="1076" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1076" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B1076" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="C1076">
-        <v>300108</v>
+        <v>300110</v>
       </c>
       <c r="D1076">
         <v>1</v>
@@ -20814,132 +20862,132 @@
     </row>
     <row r="1077" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1077" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B1077" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="C1077">
-        <v>300111</v>
+        <v>300126</v>
       </c>
       <c r="D1077">
         <v>1</v>
       </c>
       <c r="E1077">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1078" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1078" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B1078" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C1078">
-        <v>300112</v>
+        <v>300103</v>
       </c>
       <c r="D1078">
         <v>1</v>
       </c>
       <c r="E1078">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1079" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1079" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B1079" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C1079">
-        <v>300113</v>
+        <v>300104</v>
       </c>
       <c r="D1079">
         <v>1</v>
       </c>
       <c r="E1079">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1080" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1080" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B1080" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="C1080">
-        <v>300114</v>
+        <v>300111</v>
       </c>
       <c r="D1080">
         <v>1</v>
       </c>
       <c r="E1080">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1081" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1081" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B1081" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="C1081">
-        <v>300115</v>
+        <v>300112</v>
       </c>
       <c r="D1081">
         <v>1</v>
       </c>
       <c r="E1081">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1082" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1082" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B1082" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="C1082">
-        <v>300116</v>
+        <v>300113</v>
       </c>
       <c r="D1082">
         <v>1</v>
       </c>
       <c r="E1082">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1083" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1083" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B1083" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="C1083">
-        <v>300117</v>
+        <v>300126</v>
       </c>
       <c r="D1083">
         <v>1</v>
       </c>
       <c r="E1083">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1084" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1084" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="B1084" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="C1084">
-        <v>300111</v>
+        <v>300107</v>
       </c>
       <c r="D1084">
         <v>1</v>
@@ -20950,13 +20998,13 @@
     </row>
     <row r="1085" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1085" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="B1085" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="C1085">
-        <v>300112</v>
+        <v>300108</v>
       </c>
       <c r="D1085">
         <v>1</v>
@@ -20967,44 +21015,44 @@
     </row>
     <row r="1086" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1086" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="B1086" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="C1086">
-        <v>300120</v>
+        <v>300111</v>
       </c>
       <c r="D1086">
         <v>1</v>
       </c>
       <c r="E1086">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1087" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1087" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="B1087" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="C1087">
-        <v>300126</v>
+        <v>300112</v>
       </c>
       <c r="D1087">
         <v>1</v>
       </c>
       <c r="E1087">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1088" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1088" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="B1088" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="C1088">
         <v>300113</v>
@@ -21013,18 +21061,18 @@
         <v>1</v>
       </c>
       <c r="E1088">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1089" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1089" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="B1089" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="C1089">
-        <v>300114</v>
+        <v>300126</v>
       </c>
       <c r="D1089">
         <v>1</v>
@@ -21035,81 +21083,81 @@
     </row>
     <row r="1090" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1090" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B1090" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C1090">
-        <v>300104</v>
+        <v>300114</v>
       </c>
       <c r="D1090">
         <v>1</v>
       </c>
       <c r="E1090">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1091" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1091" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B1091" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C1091">
-        <v>300108</v>
+        <v>300115</v>
       </c>
       <c r="D1091">
         <v>1</v>
       </c>
       <c r="E1091">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1092" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1092" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="B1092" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="C1092">
-        <v>300102</v>
+        <v>300116</v>
       </c>
       <c r="D1092">
         <v>1</v>
       </c>
       <c r="E1092">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1093" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1093" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="B1093" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="C1093">
-        <v>300106</v>
+        <v>300117</v>
       </c>
       <c r="D1093">
         <v>1</v>
       </c>
       <c r="E1093">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1094" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1094" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="B1094" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="C1094">
-        <v>300110</v>
+        <v>300126</v>
       </c>
       <c r="D1094">
         <v>1</v>
@@ -21120,149 +21168,149 @@
     </row>
     <row r="1095" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1095" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B1095" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="C1095">
-        <v>300113</v>
+        <v>300111</v>
       </c>
       <c r="D1095">
         <v>1</v>
       </c>
       <c r="E1095">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1096" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1096" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="B1096" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="C1096">
-        <v>300103</v>
+        <v>300112</v>
       </c>
       <c r="D1096">
         <v>1</v>
       </c>
       <c r="E1096">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1097" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1097" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="B1097" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="C1097">
-        <v>300104</v>
+        <v>300120</v>
       </c>
       <c r="D1097">
         <v>1</v>
       </c>
       <c r="E1097">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1098" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1098" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="B1098" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="C1098">
-        <v>300111</v>
+        <v>300126</v>
       </c>
       <c r="D1098">
         <v>1</v>
       </c>
       <c r="E1098">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1099" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1099" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="B1099" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="C1099">
-        <v>300112</v>
+        <v>300126</v>
       </c>
       <c r="D1099">
         <v>1</v>
       </c>
       <c r="E1099">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1100" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="B1100" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="C1100">
-        <v>300107</v>
+        <v>300113</v>
       </c>
       <c r="D1100">
         <v>1</v>
       </c>
       <c r="E1100">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1101" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="B1101" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="C1101">
-        <v>300108</v>
+        <v>300114</v>
       </c>
       <c r="D1101">
         <v>1</v>
       </c>
       <c r="E1101">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1102" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="B1102" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="C1102">
-        <v>300111</v>
+        <v>300104</v>
       </c>
       <c r="D1102">
         <v>1</v>
       </c>
       <c r="E1102">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1103" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="B1103" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="C1103">
-        <v>300112</v>
+        <v>300108</v>
       </c>
       <c r="D1103">
         <v>1</v>
@@ -21273,13 +21321,13 @@
     </row>
     <row r="1104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1104" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="B1104" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="C1104">
-        <v>300106</v>
+        <v>300126</v>
       </c>
       <c r="D1104">
         <v>1</v>
@@ -21290,13 +21338,13 @@
     </row>
     <row r="1105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1105" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="B1105" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="C1105">
-        <v>300110</v>
+        <v>300102</v>
       </c>
       <c r="D1105">
         <v>1</v>
@@ -21307,30 +21355,30 @@
     </row>
     <row r="1106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1106" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="B1106" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="C1106">
-        <v>300113</v>
+        <v>300106</v>
       </c>
       <c r="D1106">
         <v>1</v>
       </c>
       <c r="E1106">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1107" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="B1107" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="C1107">
-        <v>300114</v>
+        <v>300110</v>
       </c>
       <c r="D1107">
         <v>1</v>
@@ -21341,13 +21389,13 @@
     </row>
     <row r="1108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1108" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="B1108" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="C1108">
-        <v>300126</v>
+        <v>300113</v>
       </c>
       <c r="D1108">
         <v>1</v>
@@ -21358,13 +21406,13 @@
     </row>
     <row r="1109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1109" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="B1109" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="C1109">
-        <v>300112</v>
+        <v>300126</v>
       </c>
       <c r="D1109">
         <v>1</v>
@@ -21375,13 +21423,13 @@
     </row>
     <row r="1110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1110" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="B1110" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="C1110">
-        <v>300113</v>
+        <v>300103</v>
       </c>
       <c r="D1110">
         <v>1</v>
@@ -21392,115 +21440,115 @@
     </row>
     <row r="1111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1111" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="B1111" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="C1111">
-        <v>300124</v>
+        <v>300104</v>
       </c>
       <c r="D1111">
         <v>1</v>
       </c>
       <c r="E1111">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1112" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="B1112" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="C1112">
-        <v>300126</v>
+        <v>300111</v>
       </c>
       <c r="D1112">
         <v>1</v>
       </c>
       <c r="E1112">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1113" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="B1113" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="C1113">
-        <v>300122</v>
+        <v>300112</v>
       </c>
       <c r="D1113">
         <v>1</v>
       </c>
       <c r="E1113">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1114" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="B1114" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="C1114">
-        <v>300125</v>
+        <v>300126</v>
       </c>
       <c r="D1114">
         <v>1</v>
       </c>
       <c r="E1114">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1115" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="B1115" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="C1115">
-        <v>300126</v>
+        <v>300107</v>
       </c>
       <c r="D1115">
         <v>1</v>
       </c>
       <c r="E1115">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1116" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="B1116" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="C1116">
-        <v>300113</v>
+        <v>300108</v>
       </c>
       <c r="D1116">
         <v>1</v>
       </c>
       <c r="E1116">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1117" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="B1117" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="C1117">
-        <v>300114</v>
+        <v>300111</v>
       </c>
       <c r="D1117">
         <v>1</v>
@@ -21511,183 +21559,183 @@
     </row>
     <row r="1118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1118" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="B1118" t="s">
-        <v>715</v>
+        <v>611</v>
       </c>
       <c r="C1118">
-        <v>301008</v>
+        <v>300112</v>
       </c>
       <c r="D1118">
         <v>1</v>
       </c>
       <c r="E1118">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1119" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="B1119" t="s">
-        <v>715</v>
+        <v>611</v>
       </c>
       <c r="C1119">
-        <v>301009</v>
+        <v>300126</v>
       </c>
       <c r="D1119">
         <v>1</v>
       </c>
       <c r="E1119">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1120" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="B1120" t="s">
-        <v>715</v>
+        <v>613</v>
       </c>
       <c r="C1120">
-        <v>301010</v>
+        <v>300106</v>
       </c>
       <c r="D1120">
         <v>1</v>
       </c>
       <c r="E1120">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1121" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="B1121" t="s">
-        <v>715</v>
+        <v>613</v>
       </c>
       <c r="C1121">
-        <v>300126</v>
+        <v>300110</v>
       </c>
       <c r="D1121">
         <v>1</v>
       </c>
       <c r="E1121">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1122" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="B1122" t="s">
-        <v>715</v>
+        <v>613</v>
       </c>
       <c r="C1122">
-        <v>300122</v>
+        <v>300113</v>
       </c>
       <c r="D1122">
         <v>1</v>
       </c>
       <c r="E1122">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1123" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="B1123" t="s">
-        <v>715</v>
+        <v>613</v>
       </c>
       <c r="C1123">
+        <v>300114</v>
+      </c>
+      <c r="D1123">
+        <v>1</v>
+      </c>
+      <c r="E1123">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1124" t="s">
+        <v>612</v>
+      </c>
+      <c r="B1124" t="s">
+        <v>613</v>
+      </c>
+      <c r="C1124">
+        <v>300126</v>
+      </c>
+      <c r="D1124">
+        <v>1</v>
+      </c>
+      <c r="E1124">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1125" t="s">
+        <v>614</v>
+      </c>
+      <c r="B1125" t="s">
+        <v>615</v>
+      </c>
+      <c r="C1125">
+        <v>300112</v>
+      </c>
+      <c r="D1125">
+        <v>1</v>
+      </c>
+      <c r="E1125">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1126" t="s">
+        <v>614</v>
+      </c>
+      <c r="B1126" t="s">
+        <v>615</v>
+      </c>
+      <c r="C1126">
+        <v>300113</v>
+      </c>
+      <c r="D1126">
+        <v>1</v>
+      </c>
+      <c r="E1126">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1127" t="s">
+        <v>614</v>
+      </c>
+      <c r="B1127" t="s">
+        <v>615</v>
+      </c>
+      <c r="C1127">
         <v>300124</v>
       </c>
-      <c r="D1123">
-        <v>1</v>
-      </c>
-      <c r="E1123">
+      <c r="D1127">
+        <v>1</v>
+      </c>
+      <c r="E1127">
         <v>5</v>
       </c>
     </row>
-    <row r="1124" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1124">
-        <v>10310021</v>
-      </c>
-      <c r="B1124" t="s">
-        <v>716</v>
-      </c>
-      <c r="C1124">
-        <v>301011</v>
-      </c>
-      <c r="D1124">
-        <v>1</v>
-      </c>
-      <c r="E1124">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="1125" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1125">
-        <v>10310021</v>
-      </c>
-      <c r="B1125" t="s">
-        <v>716</v>
-      </c>
-      <c r="C1125">
-        <v>301009</v>
-      </c>
-      <c r="D1125">
-        <v>1</v>
-      </c>
-      <c r="E1125">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="1126" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1126">
-        <v>10310021</v>
-      </c>
-      <c r="B1126" t="s">
-        <v>716</v>
-      </c>
-      <c r="C1126">
-        <v>301010</v>
-      </c>
-      <c r="D1126">
-        <v>1</v>
-      </c>
-      <c r="E1126">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="1127" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1127">
-        <v>10310021</v>
-      </c>
-      <c r="B1127" t="s">
-        <v>716</v>
-      </c>
-      <c r="C1127">
+    <row r="1128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1128" t="s">
+        <v>614</v>
+      </c>
+      <c r="B1128" t="s">
+        <v>615</v>
+      </c>
+      <c r="C1128">
         <v>300126</v>
-      </c>
-      <c r="D1127">
-        <v>1</v>
-      </c>
-      <c r="E1127">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="1128" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1128">
-        <v>10310021</v>
-      </c>
-      <c r="B1128" t="s">
-        <v>716</v>
-      </c>
-      <c r="C1128">
-        <v>300122</v>
       </c>
       <c r="D1128">
         <v>1</v>
@@ -21697,184 +21745,184 @@
       </c>
     </row>
     <row r="1129" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1129">
-        <v>10310021</v>
+      <c r="A1129" t="s">
+        <v>616</v>
       </c>
       <c r="B1129" t="s">
-        <v>716</v>
+        <v>617</v>
       </c>
       <c r="C1129">
-        <v>300124</v>
+        <v>300122</v>
       </c>
       <c r="D1129">
         <v>1</v>
       </c>
       <c r="E1129">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1130" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1130">
-        <v>10310022</v>
+      <c r="A1130" t="s">
+        <v>616</v>
       </c>
       <c r="B1130" t="s">
-        <v>717</v>
+        <v>617</v>
       </c>
       <c r="C1130">
+        <v>300125</v>
+      </c>
+      <c r="D1130">
+        <v>1</v>
+      </c>
+      <c r="E1130">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1131" t="s">
+        <v>616</v>
+      </c>
+      <c r="B1131" t="s">
+        <v>617</v>
+      </c>
+      <c r="C1131">
+        <v>300126</v>
+      </c>
+      <c r="D1131">
+        <v>1</v>
+      </c>
+      <c r="E1131">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1132" t="s">
+        <v>616</v>
+      </c>
+      <c r="B1132" t="s">
+        <v>617</v>
+      </c>
+      <c r="C1132">
+        <v>300113</v>
+      </c>
+      <c r="D1132">
+        <v>1</v>
+      </c>
+      <c r="E1132">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1133" t="s">
+        <v>616</v>
+      </c>
+      <c r="B1133" t="s">
+        <v>617</v>
+      </c>
+      <c r="C1133">
+        <v>300114</v>
+      </c>
+      <c r="D1133">
+        <v>1</v>
+      </c>
+      <c r="E1133">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1134" t="s">
+        <v>618</v>
+      </c>
+      <c r="B1134" t="s">
+        <v>715</v>
+      </c>
+      <c r="C1134">
         <v>301008</v>
       </c>
-      <c r="D1130">
-        <v>1</v>
-      </c>
-      <c r="E1130">
+      <c r="D1134">
+        <v>1</v>
+      </c>
+      <c r="E1134">
         <v>100</v>
       </c>
     </row>
-    <row r="1131" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1131">
-        <v>10310022</v>
-      </c>
-      <c r="B1131" t="s">
-        <v>717</v>
-      </c>
-      <c r="C1131">
-        <v>301012</v>
-      </c>
-      <c r="D1131">
-        <v>1</v>
-      </c>
-      <c r="E1131">
+    <row r="1135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1135" t="s">
+        <v>618</v>
+      </c>
+      <c r="B1135" t="s">
+        <v>715</v>
+      </c>
+      <c r="C1135">
+        <v>301009</v>
+      </c>
+      <c r="D1135">
+        <v>1</v>
+      </c>
+      <c r="E1135">
         <v>100</v>
       </c>
     </row>
-    <row r="1132" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1132">
-        <v>10310022</v>
-      </c>
-      <c r="B1132" t="s">
-        <v>717</v>
-      </c>
-      <c r="C1132">
-        <v>301009</v>
-      </c>
-      <c r="D1132">
-        <v>1</v>
-      </c>
-      <c r="E1132">
+    <row r="1136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1136" t="s">
+        <v>618</v>
+      </c>
+      <c r="B1136" t="s">
+        <v>715</v>
+      </c>
+      <c r="C1136">
+        <v>301010</v>
+      </c>
+      <c r="D1136">
+        <v>1</v>
+      </c>
+      <c r="E1136">
         <v>100</v>
       </c>
     </row>
-    <row r="1133" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1133">
-        <v>10310022</v>
-      </c>
-      <c r="B1133" t="s">
-        <v>717</v>
-      </c>
-      <c r="C1133">
-        <v>301010</v>
-      </c>
-      <c r="D1133">
-        <v>1</v>
-      </c>
-      <c r="E1133">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="1134" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1134">
-        <v>10310022</v>
-      </c>
-      <c r="B1134" t="s">
-        <v>717</v>
-      </c>
-      <c r="C1134">
+    <row r="1137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1137" t="s">
+        <v>618</v>
+      </c>
+      <c r="B1137" t="s">
+        <v>715</v>
+      </c>
+      <c r="C1137">
         <v>300126</v>
       </c>
-      <c r="D1134">
-        <v>1</v>
-      </c>
-      <c r="E1134">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="1135" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1135">
-        <v>10310022</v>
-      </c>
-      <c r="B1135" t="s">
-        <v>717</v>
-      </c>
-      <c r="C1135">
-        <v>300122</v>
-      </c>
-      <c r="D1135">
-        <v>1</v>
-      </c>
-      <c r="E1135">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="1136" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1136">
-        <v>10310022</v>
-      </c>
-      <c r="B1136" t="s">
-        <v>717</v>
-      </c>
-      <c r="C1136">
-        <v>300124</v>
-      </c>
-      <c r="D1136">
-        <v>1</v>
-      </c>
-      <c r="E1136">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="1137" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1137">
-        <v>10310022</v>
-      </c>
-      <c r="B1137" t="s">
-        <v>717</v>
-      </c>
-      <c r="C1137">
-        <v>300124</v>
-      </c>
       <c r="D1137">
         <v>1</v>
       </c>
       <c r="E1137">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1138" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B1138" t="s">
-        <v>620</v>
+        <v>715</v>
       </c>
       <c r="C1138">
-        <v>300101</v>
+        <v>300122</v>
       </c>
       <c r="D1138">
         <v>1</v>
       </c>
       <c r="E1138">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1139" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B1139" t="s">
-        <v>620</v>
+        <v>715</v>
       </c>
       <c r="C1139">
-        <v>300102</v>
+        <v>300124</v>
       </c>
       <c r="D1139">
         <v>1</v>
@@ -21884,286 +21932,286 @@
       </c>
     </row>
     <row r="1140" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1140" t="s">
-        <v>621</v>
+      <c r="A1140">
+        <v>10310021</v>
       </c>
       <c r="B1140" t="s">
-        <v>622</v>
+        <v>716</v>
       </c>
       <c r="C1140">
-        <v>300103</v>
+        <v>301011</v>
       </c>
       <c r="D1140">
         <v>1</v>
       </c>
       <c r="E1140">
-        <v>15</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1141" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1141" t="s">
-        <v>621</v>
+      <c r="A1141">
+        <v>10310021</v>
       </c>
       <c r="B1141" t="s">
-        <v>622</v>
+        <v>716</v>
       </c>
       <c r="C1141">
-        <v>300104</v>
+        <v>301009</v>
       </c>
       <c r="D1141">
         <v>1</v>
       </c>
       <c r="E1141">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1142" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1142" t="s">
-        <v>621</v>
+      <c r="A1142">
+        <v>10310021</v>
       </c>
       <c r="B1142" t="s">
-        <v>622</v>
+        <v>716</v>
       </c>
       <c r="C1142">
-        <v>300112</v>
+        <v>301010</v>
       </c>
       <c r="D1142">
         <v>1</v>
       </c>
       <c r="E1142">
-        <v>5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1143" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1143" t="s">
-        <v>621</v>
+      <c r="A1143">
+        <v>10310021</v>
       </c>
       <c r="B1143" t="s">
-        <v>622</v>
+        <v>716</v>
       </c>
       <c r="C1143">
-        <v>300113</v>
+        <v>300126</v>
       </c>
       <c r="D1143">
         <v>1</v>
       </c>
       <c r="E1143">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="1144" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1144" t="s">
-        <v>623</v>
+      <c r="A1144">
+        <v>10310021</v>
       </c>
       <c r="B1144" t="s">
-        <v>624</v>
+        <v>716</v>
       </c>
       <c r="C1144">
-        <v>300107</v>
+        <v>300122</v>
       </c>
       <c r="D1144">
         <v>1</v>
       </c>
       <c r="E1144">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1145" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1145" t="s">
-        <v>623</v>
+      <c r="A1145">
+        <v>10310021</v>
       </c>
       <c r="B1145" t="s">
-        <v>624</v>
+        <v>716</v>
       </c>
       <c r="C1145">
-        <v>300108</v>
+        <v>300124</v>
       </c>
       <c r="D1145">
         <v>1</v>
       </c>
       <c r="E1145">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1146" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1146" t="s">
-        <v>623</v>
+      <c r="A1146">
+        <v>10310022</v>
       </c>
       <c r="B1146" t="s">
-        <v>624</v>
+        <v>717</v>
       </c>
       <c r="C1146">
-        <v>300112</v>
+        <v>301008</v>
       </c>
       <c r="D1146">
         <v>1</v>
       </c>
       <c r="E1146">
-        <v>5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1147" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1147" t="s">
-        <v>623</v>
+      <c r="A1147">
+        <v>10310022</v>
       </c>
       <c r="B1147" t="s">
-        <v>624</v>
+        <v>717</v>
       </c>
       <c r="C1147">
-        <v>300113</v>
+        <v>301012</v>
       </c>
       <c r="D1147">
         <v>1</v>
       </c>
       <c r="E1147">
-        <v>5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1148" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1148" t="s">
-        <v>623</v>
+      <c r="A1148">
+        <v>10310022</v>
       </c>
       <c r="B1148" t="s">
-        <v>624</v>
+        <v>717</v>
       </c>
       <c r="C1148">
+        <v>301009</v>
+      </c>
+      <c r="D1148">
+        <v>1</v>
+      </c>
+      <c r="E1148">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1149">
+        <v>10310022</v>
+      </c>
+      <c r="B1149" t="s">
+        <v>717</v>
+      </c>
+      <c r="C1149">
+        <v>301010</v>
+      </c>
+      <c r="D1149">
+        <v>1</v>
+      </c>
+      <c r="E1149">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1150">
+        <v>10310022</v>
+      </c>
+      <c r="B1150" t="s">
+        <v>717</v>
+      </c>
+      <c r="C1150">
+        <v>300126</v>
+      </c>
+      <c r="D1150">
+        <v>1</v>
+      </c>
+      <c r="E1150">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1151">
+        <v>10310022</v>
+      </c>
+      <c r="B1151" t="s">
+        <v>717</v>
+      </c>
+      <c r="C1151">
         <v>300122</v>
       </c>
-      <c r="D1148">
-        <v>1</v>
-      </c>
-      <c r="E1148">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1149" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1149" t="s">
-        <v>623</v>
-      </c>
-      <c r="B1149" t="s">
-        <v>624</v>
-      </c>
-      <c r="C1149">
-        <v>300126</v>
-      </c>
-      <c r="D1149">
-        <v>1</v>
-      </c>
-      <c r="E1149">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="1150" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1150" t="s">
-        <v>625</v>
-      </c>
-      <c r="B1150" t="s">
-        <v>626</v>
-      </c>
-      <c r="C1150" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1150" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1150" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="1151" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1151" t="s">
-        <v>627</v>
-      </c>
-      <c r="B1151" t="s">
-        <v>628</v>
-      </c>
-      <c r="C1151" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1151" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1151" t="s">
-        <v>7</v>
+      <c r="D1151">
+        <v>1</v>
+      </c>
+      <c r="E1151">
+        <v>40</v>
       </c>
     </row>
     <row r="1152" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1152" t="s">
-        <v>629</v>
+      <c r="A1152">
+        <v>10310022</v>
       </c>
       <c r="B1152" t="s">
-        <v>630</v>
-      </c>
-      <c r="C1152" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1152" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1152" t="s">
-        <v>7</v>
+        <v>717</v>
+      </c>
+      <c r="C1152">
+        <v>300124</v>
+      </c>
+      <c r="D1152">
+        <v>1</v>
+      </c>
+      <c r="E1152">
+        <v>40</v>
       </c>
     </row>
     <row r="1153" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1153" t="s">
-        <v>631</v>
+      <c r="A1153">
+        <v>10310022</v>
       </c>
       <c r="B1153" t="s">
-        <v>632</v>
-      </c>
-      <c r="C1153" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1153" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1153" t="s">
-        <v>7</v>
+        <v>717</v>
+      </c>
+      <c r="C1153">
+        <v>300124</v>
+      </c>
+      <c r="D1153">
+        <v>1</v>
+      </c>
+      <c r="E1153">
+        <v>40</v>
       </c>
     </row>
     <row r="1154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1154" t="s">
-        <v>633</v>
+        <v>619</v>
       </c>
       <c r="B1154" t="s">
-        <v>634</v>
+        <v>620</v>
       </c>
       <c r="C1154">
-        <v>300103</v>
+        <v>300101</v>
       </c>
       <c r="D1154">
         <v>1</v>
       </c>
       <c r="E1154">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1155" t="s">
-        <v>633</v>
+        <v>619</v>
       </c>
       <c r="B1155" t="s">
-        <v>634</v>
+        <v>620</v>
       </c>
       <c r="C1155">
-        <v>300104</v>
+        <v>300102</v>
       </c>
       <c r="D1155">
         <v>1</v>
       </c>
       <c r="E1155">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1156" t="s">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="B1156" t="s">
-        <v>636</v>
+        <v>620</v>
       </c>
       <c r="C1156">
-        <v>300101</v>
+        <v>300126</v>
       </c>
       <c r="D1156">
         <v>1</v>
@@ -22174,10 +22222,10 @@
     </row>
     <row r="1157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1157" t="s">
-        <v>635</v>
+        <v>621</v>
       </c>
       <c r="B1157" t="s">
-        <v>636</v>
+        <v>622</v>
       </c>
       <c r="C1157">
         <v>300103</v>
@@ -22186,188 +22234,188 @@
         <v>1</v>
       </c>
       <c r="E1157">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1158" t="s">
-        <v>635</v>
+        <v>621</v>
       </c>
       <c r="B1158" t="s">
-        <v>636</v>
+        <v>622</v>
       </c>
       <c r="C1158">
-        <v>300107</v>
+        <v>300104</v>
       </c>
       <c r="D1158">
         <v>1</v>
       </c>
       <c r="E1158">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1159" t="s">
-        <v>637</v>
+        <v>621</v>
       </c>
       <c r="B1159" t="s">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="C1159">
-        <v>300111</v>
+        <v>300112</v>
       </c>
       <c r="D1159">
         <v>1</v>
       </c>
       <c r="E1159">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1160" t="s">
-        <v>637</v>
+        <v>621</v>
       </c>
       <c r="B1160" t="s">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="C1160">
-        <v>300112</v>
+        <v>300113</v>
       </c>
       <c r="D1160">
         <v>1</v>
       </c>
       <c r="E1160">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1161" t="s">
-        <v>637</v>
+        <v>621</v>
       </c>
       <c r="B1161" t="s">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="C1161">
-        <v>300113</v>
+        <v>300126</v>
       </c>
       <c r="D1161">
         <v>1</v>
       </c>
       <c r="E1161">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1162" t="s">
-        <v>637</v>
+        <v>623</v>
       </c>
       <c r="B1162" t="s">
-        <v>638</v>
+        <v>624</v>
       </c>
       <c r="C1162">
-        <v>300114</v>
+        <v>300107</v>
       </c>
       <c r="D1162">
         <v>1</v>
       </c>
       <c r="E1162">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1163" t="s">
-        <v>639</v>
+        <v>623</v>
       </c>
       <c r="B1163" t="s">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="C1163">
-        <v>300107</v>
+        <v>300108</v>
       </c>
       <c r="D1163">
         <v>1</v>
       </c>
       <c r="E1163">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1164" t="s">
-        <v>639</v>
+        <v>623</v>
       </c>
       <c r="B1164" t="s">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="C1164">
-        <v>300108</v>
+        <v>300112</v>
       </c>
       <c r="D1164">
         <v>1</v>
       </c>
       <c r="E1164">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1165" t="s">
-        <v>641</v>
+        <v>623</v>
       </c>
       <c r="B1165" t="s">
-        <v>642</v>
+        <v>624</v>
       </c>
       <c r="C1165">
-        <v>300101</v>
+        <v>300113</v>
       </c>
       <c r="D1165">
         <v>1</v>
       </c>
       <c r="E1165">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1166" t="s">
-        <v>641</v>
+        <v>623</v>
       </c>
       <c r="B1166" t="s">
-        <v>642</v>
+        <v>624</v>
       </c>
       <c r="C1166">
-        <v>300103</v>
+        <v>300122</v>
       </c>
       <c r="D1166">
         <v>1</v>
       </c>
       <c r="E1166">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1167" t="s">
-        <v>641</v>
+        <v>623</v>
       </c>
       <c r="B1167" t="s">
-        <v>642</v>
+        <v>624</v>
       </c>
       <c r="C1167">
-        <v>300107</v>
+        <v>300126</v>
       </c>
       <c r="D1167">
         <v>1</v>
       </c>
       <c r="E1167">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1168" t="s">
-        <v>643</v>
+        <v>623</v>
       </c>
       <c r="B1168" t="s">
-        <v>644</v>
+        <v>624</v>
       </c>
       <c r="C1168">
-        <v>300105</v>
+        <v>300126</v>
       </c>
       <c r="D1168">
         <v>1</v>
@@ -22378,115 +22426,115 @@
     </row>
     <row r="1169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1169" t="s">
-        <v>643</v>
+        <v>625</v>
       </c>
       <c r="B1169" t="s">
-        <v>644</v>
-      </c>
-      <c r="C1169">
-        <v>300106</v>
-      </c>
-      <c r="D1169">
-        <v>1</v>
-      </c>
-      <c r="E1169">
-        <v>8</v>
+        <v>626</v>
+      </c>
+      <c r="C1169" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1169" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1169" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="1170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1170" t="s">
-        <v>643</v>
+        <v>627</v>
       </c>
       <c r="B1170" t="s">
-        <v>644</v>
-      </c>
-      <c r="C1170">
-        <v>300109</v>
-      </c>
-      <c r="D1170">
-        <v>1</v>
-      </c>
-      <c r="E1170">
-        <v>8</v>
+        <v>628</v>
+      </c>
+      <c r="C1170" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1170" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1170" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="1171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1171" t="s">
-        <v>643</v>
+        <v>629</v>
       </c>
       <c r="B1171" t="s">
-        <v>644</v>
-      </c>
-      <c r="C1171">
-        <v>300110</v>
-      </c>
-      <c r="D1171">
-        <v>1</v>
-      </c>
-      <c r="E1171">
-        <v>8</v>
+        <v>630</v>
+      </c>
+      <c r="C1171" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1171" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1171" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="1172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1172" t="s">
-        <v>645</v>
+        <v>631</v>
       </c>
       <c r="B1172" t="s">
-        <v>646</v>
-      </c>
-      <c r="C1172">
-        <v>300112</v>
-      </c>
-      <c r="D1172">
-        <v>1</v>
-      </c>
-      <c r="E1172">
-        <v>10</v>
+        <v>632</v>
+      </c>
+      <c r="C1172" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1172" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1172" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="1173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1173" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="B1173" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="C1173">
-        <v>300113</v>
+        <v>300103</v>
       </c>
       <c r="D1173">
         <v>1</v>
       </c>
       <c r="E1173">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1174" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="B1174" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="C1174">
-        <v>300124</v>
+        <v>300104</v>
       </c>
       <c r="D1174">
         <v>1</v>
       </c>
       <c r="E1174">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1175" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="B1175" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="C1175">
-        <v>300111</v>
+        <v>300101</v>
       </c>
       <c r="D1175">
         <v>1</v>
@@ -22497,129 +22545,129 @@
     </row>
     <row r="1176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1176" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="B1176" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="C1176">
-        <v>300114</v>
+        <v>300103</v>
       </c>
       <c r="D1176">
         <v>1</v>
       </c>
       <c r="E1176">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1177" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="B1177" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="C1177">
-        <v>300115</v>
+        <v>300107</v>
       </c>
       <c r="D1177">
         <v>1</v>
       </c>
       <c r="E1177">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1178" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="B1178" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="C1178">
-        <v>300117</v>
+        <v>300111</v>
       </c>
       <c r="D1178">
         <v>1</v>
       </c>
       <c r="E1178">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1179" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="B1179" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="C1179">
-        <v>300126</v>
+        <v>300112</v>
       </c>
       <c r="D1179">
         <v>1</v>
       </c>
       <c r="E1179">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1180" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="B1180" t="s">
-        <v>650</v>
+        <v>638</v>
       </c>
       <c r="C1180">
-        <v>300102</v>
+        <v>300113</v>
       </c>
       <c r="D1180">
         <v>1</v>
       </c>
       <c r="E1180">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1181" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="B1181" t="s">
-        <v>650</v>
+        <v>638</v>
       </c>
       <c r="C1181">
-        <v>300104</v>
+        <v>300114</v>
       </c>
       <c r="D1181">
         <v>1</v>
       </c>
       <c r="E1181">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1182" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="B1182" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="C1182">
-        <v>300106</v>
+        <v>300107</v>
       </c>
       <c r="D1182">
         <v>1</v>
       </c>
       <c r="E1182">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1183" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="B1183" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="C1183">
         <v>300108</v>
@@ -22628,120 +22676,120 @@
         <v>1</v>
       </c>
       <c r="E1183">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1184" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="B1184" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="C1184">
-        <v>300110</v>
+        <v>300101</v>
       </c>
       <c r="D1184">
         <v>1</v>
       </c>
       <c r="E1184">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1185" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="B1185" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="C1185">
-        <v>300111</v>
+        <v>300103</v>
       </c>
       <c r="D1185">
         <v>1</v>
       </c>
       <c r="E1185">
-        <v>100</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1186" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="B1186" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="C1186">
-        <v>300112</v>
+        <v>300107</v>
       </c>
       <c r="D1186">
         <v>1</v>
       </c>
       <c r="E1186">
-        <v>100</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1187" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="B1187" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="C1187">
-        <v>300113</v>
+        <v>300105</v>
       </c>
       <c r="D1187">
         <v>1</v>
       </c>
       <c r="E1187">
-        <v>100</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1188" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="B1188" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="C1188">
-        <v>300115</v>
+        <v>300106</v>
       </c>
       <c r="D1188">
         <v>1</v>
       </c>
       <c r="E1188">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1189" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="B1189" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="C1189">
-        <v>300120</v>
+        <v>300109</v>
       </c>
       <c r="D1189">
         <v>1</v>
       </c>
       <c r="E1189">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1190" t="s">
-        <v>655</v>
+        <v>643</v>
       </c>
       <c r="B1190" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
       <c r="C1190">
-        <v>300114</v>
+        <v>300110</v>
       </c>
       <c r="D1190">
         <v>1</v>
@@ -22752,302 +22800,302 @@
     </row>
     <row r="1191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1191" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="B1191" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="C1191">
-        <v>300125</v>
+        <v>300112</v>
       </c>
       <c r="D1191">
         <v>1</v>
       </c>
       <c r="E1191">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1192" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="B1192" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="C1192">
-        <v>300112</v>
+        <v>300113</v>
       </c>
       <c r="D1192">
         <v>1</v>
       </c>
       <c r="E1192">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1193" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
       <c r="B1193" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="C1193">
-        <v>300103</v>
+        <v>300124</v>
       </c>
       <c r="D1193">
         <v>1</v>
       </c>
       <c r="E1193">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1194" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="B1194" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="C1194">
-        <v>300107</v>
+        <v>300111</v>
       </c>
       <c r="D1194">
         <v>1</v>
       </c>
       <c r="E1194">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1195" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="B1195" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
       <c r="C1195">
-        <v>300102</v>
+        <v>300114</v>
       </c>
       <c r="D1195">
         <v>1</v>
       </c>
       <c r="E1195">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1196" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="B1196" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
       <c r="C1196">
-        <v>300113</v>
+        <v>300115</v>
       </c>
       <c r="D1196">
         <v>1</v>
       </c>
       <c r="E1196">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1197" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="B1197" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
       <c r="C1197">
-        <v>300126</v>
+        <v>300117</v>
       </c>
       <c r="D1197">
         <v>1</v>
       </c>
       <c r="E1197">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1198" t="s">
-        <v>661</v>
+        <v>647</v>
       </c>
       <c r="B1198" t="s">
-        <v>662</v>
+        <v>648</v>
       </c>
       <c r="C1198">
-        <v>300112</v>
+        <v>300126</v>
       </c>
       <c r="D1198">
         <v>1</v>
       </c>
       <c r="E1198">
-        <v>100</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1199" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="B1199" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
       <c r="C1199">
-        <v>300113</v>
+        <v>300102</v>
       </c>
       <c r="D1199">
         <v>1</v>
       </c>
       <c r="E1199">
-        <v>100</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1200" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="B1200" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
       <c r="C1200">
-        <v>300126</v>
+        <v>300104</v>
       </c>
       <c r="D1200">
         <v>1</v>
       </c>
       <c r="E1200">
-        <v>100</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1201" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="B1201" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
       <c r="C1201">
-        <v>300114</v>
+        <v>300106</v>
       </c>
       <c r="D1201">
         <v>1</v>
       </c>
       <c r="E1201">
-        <v>100</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1202" t="s">
-        <v>663</v>
+        <v>649</v>
       </c>
       <c r="B1202" t="s">
-        <v>664</v>
+        <v>650</v>
       </c>
       <c r="C1202">
-        <v>300103</v>
+        <v>300108</v>
       </c>
       <c r="D1202">
         <v>1</v>
       </c>
       <c r="E1202">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1203" t="s">
-        <v>663</v>
+        <v>649</v>
       </c>
       <c r="B1203" t="s">
-        <v>664</v>
+        <v>650</v>
       </c>
       <c r="C1203">
-        <v>300104</v>
+        <v>300110</v>
       </c>
       <c r="D1203">
         <v>1</v>
       </c>
       <c r="E1203">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1204" t="s">
-        <v>663</v>
+        <v>651</v>
       </c>
       <c r="B1204" t="s">
-        <v>664</v>
+        <v>652</v>
       </c>
       <c r="C1204">
-        <v>300126</v>
+        <v>300111</v>
       </c>
       <c r="D1204">
         <v>1</v>
       </c>
       <c r="E1204">
-        <v>4</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1205" t="s">
-        <v>665</v>
+        <v>651</v>
       </c>
       <c r="B1205" t="s">
-        <v>666</v>
+        <v>652</v>
       </c>
       <c r="C1205">
-        <v>300107</v>
+        <v>300112</v>
       </c>
       <c r="D1205">
         <v>1</v>
       </c>
       <c r="E1205">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1206" t="s">
-        <v>665</v>
+        <v>651</v>
       </c>
       <c r="B1206" t="s">
-        <v>666</v>
+        <v>652</v>
       </c>
       <c r="C1206">
-        <v>300108</v>
+        <v>300113</v>
       </c>
       <c r="D1206">
         <v>1</v>
       </c>
       <c r="E1206">
-        <v>6</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1207" t="s">
-        <v>665</v>
+        <v>653</v>
       </c>
       <c r="B1207" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
       <c r="C1207">
-        <v>300125</v>
+        <v>300115</v>
       </c>
       <c r="D1207">
         <v>1</v>
       </c>
       <c r="E1207">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1208" t="s">
-        <v>667</v>
+        <v>653</v>
       </c>
       <c r="B1208" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="C1208">
-        <v>300111</v>
+        <v>300120</v>
       </c>
       <c r="D1208">
         <v>1</v>
@@ -23058,13 +23106,13 @@
     </row>
     <row r="1209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1209" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
       <c r="B1209" t="s">
-        <v>668</v>
+        <v>656</v>
       </c>
       <c r="C1209">
-        <v>300112</v>
+        <v>300114</v>
       </c>
       <c r="D1209">
         <v>1</v>
@@ -23075,98 +23123,98 @@
     </row>
     <row r="1210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1210" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
       <c r="B1210" t="s">
-        <v>668</v>
+        <v>656</v>
       </c>
       <c r="C1210">
-        <v>300115</v>
+        <v>300125</v>
       </c>
       <c r="D1210">
         <v>1</v>
       </c>
       <c r="E1210">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1211" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
       <c r="B1211" t="s">
-        <v>668</v>
+        <v>656</v>
       </c>
       <c r="C1211">
-        <v>300124</v>
+        <v>300112</v>
       </c>
       <c r="D1211">
         <v>1</v>
       </c>
       <c r="E1211">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1212" t="s">
-        <v>669</v>
+        <v>657</v>
       </c>
       <c r="B1212" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
       <c r="C1212">
-        <v>300113</v>
+        <v>300103</v>
       </c>
       <c r="D1212">
         <v>1</v>
       </c>
       <c r="E1212">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1213" t="s">
-        <v>669</v>
+        <v>657</v>
       </c>
       <c r="B1213" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
       <c r="C1213">
-        <v>300122</v>
+        <v>300107</v>
       </c>
       <c r="D1213">
         <v>1</v>
       </c>
       <c r="E1213">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1214" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="B1214" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="C1214">
-        <v>300126</v>
+        <v>300102</v>
       </c>
       <c r="D1214">
         <v>1</v>
       </c>
       <c r="E1214">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1215" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="B1215" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="C1215">
-        <v>300102</v>
+        <v>300113</v>
       </c>
       <c r="D1215">
         <v>1</v>
@@ -23177,95 +23225,95 @@
     </row>
     <row r="1216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1216" t="s">
-        <v>671</v>
+        <v>659</v>
       </c>
       <c r="B1216" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="C1216">
-        <v>300101</v>
+        <v>300126</v>
       </c>
       <c r="D1216">
         <v>1</v>
       </c>
       <c r="E1216">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1217" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="B1217" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
       <c r="C1217">
-        <v>300101</v>
+        <v>300112</v>
       </c>
       <c r="D1217">
         <v>1</v>
       </c>
       <c r="E1217">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1218" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="B1218" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
       <c r="C1218">
-        <v>300103</v>
+        <v>300113</v>
       </c>
       <c r="D1218">
         <v>1</v>
       </c>
       <c r="E1218">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1219" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="B1219" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
       <c r="C1219">
-        <v>300107</v>
+        <v>300126</v>
       </c>
       <c r="D1219">
         <v>1</v>
       </c>
       <c r="E1219">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1220" t="s">
-        <v>675</v>
+        <v>661</v>
       </c>
       <c r="B1220" t="s">
-        <v>676</v>
+        <v>662</v>
       </c>
       <c r="C1220">
-        <v>300101</v>
+        <v>300114</v>
       </c>
       <c r="D1220">
         <v>1</v>
       </c>
       <c r="E1220">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1221" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="B1221" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
       <c r="C1221">
         <v>300103</v>
@@ -23279,421 +23327,421 @@
     </row>
     <row r="1222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1222" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="B1222" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
       <c r="C1222">
-        <v>300107</v>
+        <v>300104</v>
       </c>
       <c r="D1222">
         <v>1</v>
       </c>
       <c r="E1222">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1223" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="B1223" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
       <c r="C1223">
-        <v>300112</v>
+        <v>300126</v>
       </c>
       <c r="D1223">
         <v>1</v>
       </c>
       <c r="E1223">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1224" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="B1224" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="C1224">
-        <v>300113</v>
+        <v>300107</v>
       </c>
       <c r="D1224">
         <v>1</v>
       </c>
       <c r="E1224">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1225" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="B1225" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="C1225">
-        <v>300126</v>
+        <v>300108</v>
       </c>
       <c r="D1225">
         <v>1</v>
       </c>
       <c r="E1225">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1226" t="s">
-        <v>677</v>
+        <v>665</v>
       </c>
       <c r="B1226" t="s">
-        <v>678</v>
+        <v>666</v>
       </c>
       <c r="C1226">
-        <v>300102</v>
+        <v>300125</v>
       </c>
       <c r="D1226">
         <v>1</v>
       </c>
       <c r="E1226">
-        <v>100</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1227" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="B1227" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="C1227">
-        <v>300122</v>
+        <v>300111</v>
       </c>
       <c r="D1227">
         <v>1</v>
       </c>
       <c r="E1227">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1228" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="B1228" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="C1228">
-        <v>300125</v>
+        <v>300112</v>
       </c>
       <c r="D1228">
         <v>1</v>
       </c>
       <c r="E1228">
-        <v>100</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1229" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="B1229" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="C1229">
-        <v>300126</v>
+        <v>300115</v>
       </c>
       <c r="D1229">
         <v>1</v>
       </c>
       <c r="E1229">
-        <v>100</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1230" t="s">
-        <v>679</v>
+        <v>667</v>
       </c>
       <c r="B1230" t="s">
-        <v>680</v>
-      </c>
-      <c r="C1230" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1230" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1230" t="s">
-        <v>7</v>
+        <v>668</v>
+      </c>
+      <c r="C1230">
+        <v>300124</v>
+      </c>
+      <c r="D1230">
+        <v>1</v>
+      </c>
+      <c r="E1230">
+        <v>1</v>
       </c>
     </row>
     <row r="1231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1231" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
       <c r="B1231" t="s">
-        <v>682</v>
-      </c>
-      <c r="C1231" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1231" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1231" t="s">
-        <v>7</v>
+        <v>670</v>
+      </c>
+      <c r="C1231">
+        <v>300113</v>
+      </c>
+      <c r="D1231">
+        <v>1</v>
+      </c>
+      <c r="E1231">
+        <v>8</v>
       </c>
     </row>
     <row r="1232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1232" t="s">
-        <v>683</v>
+        <v>669</v>
       </c>
       <c r="B1232" t="s">
-        <v>684</v>
-      </c>
-      <c r="C1232" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1232" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1232" t="s">
-        <v>7</v>
+        <v>670</v>
+      </c>
+      <c r="C1232">
+        <v>300122</v>
+      </c>
+      <c r="D1232">
+        <v>1</v>
+      </c>
+      <c r="E1232">
+        <v>2</v>
       </c>
     </row>
     <row r="1233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1233" t="s">
-        <v>685</v>
+        <v>669</v>
       </c>
       <c r="B1233" t="s">
-        <v>686</v>
-      </c>
-      <c r="C1233" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1233" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1233" t="s">
-        <v>7</v>
+        <v>670</v>
+      </c>
+      <c r="C1233">
+        <v>300126</v>
+      </c>
+      <c r="D1233">
+        <v>1</v>
+      </c>
+      <c r="E1233">
+        <v>4</v>
       </c>
     </row>
     <row r="1234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1234" t="s">
-        <v>687</v>
+        <v>669</v>
       </c>
       <c r="B1234" t="s">
-        <v>688</v>
-      </c>
-      <c r="C1234" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1234" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1234" t="s">
-        <v>7</v>
+        <v>670</v>
+      </c>
+      <c r="C1234">
+        <v>300102</v>
+      </c>
+      <c r="D1234">
+        <v>1</v>
+      </c>
+      <c r="E1234">
+        <v>8</v>
       </c>
     </row>
     <row r="1235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1235" t="s">
-        <v>689</v>
+        <v>671</v>
       </c>
       <c r="B1235" t="s">
-        <v>690</v>
-      </c>
-      <c r="C1235" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1235" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1235" t="s">
-        <v>7</v>
+        <v>672</v>
+      </c>
+      <c r="C1235">
+        <v>300101</v>
+      </c>
+      <c r="D1235">
+        <v>1</v>
+      </c>
+      <c r="E1235">
+        <v>10</v>
       </c>
     </row>
     <row r="1236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1236" t="s">
-        <v>691</v>
+        <v>718</v>
       </c>
       <c r="B1236" t="s">
-        <v>692</v>
-      </c>
-      <c r="C1236" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1236" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1236" t="s">
-        <v>7</v>
+        <v>664</v>
+      </c>
+      <c r="C1236">
+        <v>300103</v>
+      </c>
+      <c r="D1236">
+        <v>1</v>
+      </c>
+      <c r="E1236">
+        <v>10</v>
       </c>
     </row>
     <row r="1237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1237" t="s">
-        <v>693</v>
+        <v>719</v>
       </c>
       <c r="B1237" t="s">
-        <v>694</v>
-      </c>
-      <c r="C1237" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1237" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1237" t="s">
-        <v>7</v>
+        <v>664</v>
+      </c>
+      <c r="C1237">
+        <v>300104</v>
+      </c>
+      <c r="D1237">
+        <v>1</v>
+      </c>
+      <c r="E1237">
+        <v>6</v>
       </c>
     </row>
     <row r="1238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1238" t="s">
-        <v>695</v>
+        <v>720</v>
       </c>
       <c r="B1238" t="s">
-        <v>696</v>
-      </c>
-      <c r="C1238" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1238" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1238" t="s">
-        <v>7</v>
+        <v>664</v>
+      </c>
+      <c r="C1238">
+        <v>300126</v>
+      </c>
+      <c r="D1238">
+        <v>1</v>
+      </c>
+      <c r="E1238">
+        <v>4</v>
       </c>
     </row>
     <row r="1239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1239" t="s">
-        <v>697</v>
+        <v>721</v>
       </c>
       <c r="B1239" t="s">
-        <v>698</v>
-      </c>
-      <c r="C1239" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1239" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1239" t="s">
-        <v>7</v>
+        <v>666</v>
+      </c>
+      <c r="C1239">
+        <v>300107</v>
+      </c>
+      <c r="D1239">
+        <v>1</v>
+      </c>
+      <c r="E1239">
+        <v>10</v>
       </c>
     </row>
     <row r="1240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1240" t="s">
-        <v>699</v>
+        <v>722</v>
       </c>
       <c r="B1240" t="s">
-        <v>700</v>
-      </c>
-      <c r="C1240" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1240" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1240" t="s">
-        <v>7</v>
+        <v>666</v>
+      </c>
+      <c r="C1240">
+        <v>300108</v>
+      </c>
+      <c r="D1240">
+        <v>1</v>
+      </c>
+      <c r="E1240">
+        <v>6</v>
       </c>
     </row>
     <row r="1241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1241" t="s">
-        <v>701</v>
+        <v>723</v>
       </c>
       <c r="B1241" t="s">
-        <v>702</v>
-      </c>
-      <c r="C1241" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1241" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1241" t="s">
-        <v>7</v>
+        <v>666</v>
+      </c>
+      <c r="C1241">
+        <v>300125</v>
+      </c>
+      <c r="D1241">
+        <v>1</v>
+      </c>
+      <c r="E1241">
+        <v>4</v>
       </c>
     </row>
     <row r="1242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1242" t="s">
-        <v>703</v>
+        <v>724</v>
       </c>
       <c r="B1242" t="s">
-        <v>704</v>
-      </c>
-      <c r="C1242" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1242" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1242" t="s">
-        <v>7</v>
+        <v>668</v>
+      </c>
+      <c r="C1242">
+        <v>300111</v>
+      </c>
+      <c r="D1242">
+        <v>1</v>
+      </c>
+      <c r="E1242">
+        <v>10</v>
       </c>
     </row>
     <row r="1243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1243" t="s">
-        <v>705</v>
+        <v>725</v>
       </c>
       <c r="B1243" t="s">
-        <v>706</v>
+        <v>668</v>
       </c>
       <c r="C1243">
-        <v>300104</v>
+        <v>300112</v>
       </c>
       <c r="D1243">
         <v>1</v>
       </c>
       <c r="E1243">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1244" t="s">
-        <v>705</v>
+        <v>726</v>
       </c>
       <c r="B1244" t="s">
-        <v>706</v>
+        <v>668</v>
       </c>
       <c r="C1244">
-        <v>300108</v>
+        <v>300115</v>
       </c>
       <c r="D1244">
         <v>1</v>
       </c>
       <c r="E1244">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1245" t="s">
-        <v>705</v>
+        <v>725</v>
       </c>
       <c r="B1245" t="s">
-        <v>706</v>
+        <v>668</v>
       </c>
       <c r="C1245">
-        <v>300116</v>
+        <v>300124</v>
       </c>
       <c r="D1245">
         <v>1</v>
       </c>
       <c r="E1245">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1246" t="s">
-        <v>705</v>
+        <v>727</v>
       </c>
       <c r="B1246" t="s">
-        <v>706</v>
+        <v>670</v>
       </c>
       <c r="C1246">
-        <v>300117</v>
+        <v>300113</v>
       </c>
       <c r="D1246">
         <v>1</v>
@@ -23704,47 +23752,47 @@
     </row>
     <row r="1247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1247" t="s">
-        <v>707</v>
+        <v>727</v>
       </c>
       <c r="B1247" t="s">
-        <v>708</v>
+        <v>670</v>
       </c>
       <c r="C1247">
-        <v>300106</v>
+        <v>300122</v>
       </c>
       <c r="D1247">
         <v>1</v>
       </c>
       <c r="E1247">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1248" t="s">
-        <v>707</v>
+        <v>728</v>
       </c>
       <c r="B1248" t="s">
-        <v>708</v>
+        <v>670</v>
       </c>
       <c r="C1248">
-        <v>300110</v>
+        <v>300126</v>
       </c>
       <c r="D1248">
         <v>1</v>
       </c>
       <c r="E1248">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1249" t="s">
-        <v>707</v>
+        <v>729</v>
       </c>
       <c r="B1249" t="s">
-        <v>708</v>
+        <v>670</v>
       </c>
       <c r="C1249">
-        <v>300111</v>
+        <v>300102</v>
       </c>
       <c r="D1249">
         <v>1</v>
@@ -23755,35 +23803,613 @@
     </row>
     <row r="1250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1250" t="s">
-        <v>707</v>
+        <v>671</v>
       </c>
       <c r="B1250" t="s">
-        <v>708</v>
+        <v>672</v>
       </c>
       <c r="C1250">
-        <v>300120</v>
+        <v>300101</v>
       </c>
       <c r="D1250">
         <v>1</v>
       </c>
       <c r="E1250">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1251" t="s">
+        <v>673</v>
+      </c>
+      <c r="B1251" t="s">
+        <v>674</v>
+      </c>
+      <c r="C1251">
+        <v>300101</v>
+      </c>
+      <c r="D1251">
+        <v>1</v>
+      </c>
+      <c r="E1251">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1252" t="s">
+        <v>673</v>
+      </c>
+      <c r="B1252" t="s">
+        <v>674</v>
+      </c>
+      <c r="C1252">
+        <v>300103</v>
+      </c>
+      <c r="D1252">
+        <v>1</v>
+      </c>
+      <c r="E1252">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1253" t="s">
+        <v>673</v>
+      </c>
+      <c r="B1253" t="s">
+        <v>674</v>
+      </c>
+      <c r="C1253">
+        <v>300107</v>
+      </c>
+      <c r="D1253">
+        <v>1</v>
+      </c>
+      <c r="E1253">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1254" t="s">
+        <v>675</v>
+      </c>
+      <c r="B1254" t="s">
+        <v>676</v>
+      </c>
+      <c r="C1254">
+        <v>300101</v>
+      </c>
+      <c r="D1254">
+        <v>1</v>
+      </c>
+      <c r="E1254">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1255" t="s">
+        <v>675</v>
+      </c>
+      <c r="B1255" t="s">
+        <v>676</v>
+      </c>
+      <c r="C1255">
+        <v>300103</v>
+      </c>
+      <c r="D1255">
+        <v>1</v>
+      </c>
+      <c r="E1255">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1256" t="s">
+        <v>675</v>
+      </c>
+      <c r="B1256" t="s">
+        <v>676</v>
+      </c>
+      <c r="C1256">
+        <v>300107</v>
+      </c>
+      <c r="D1256">
+        <v>1</v>
+      </c>
+      <c r="E1256">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1257" t="s">
+        <v>675</v>
+      </c>
+      <c r="B1257" t="s">
+        <v>676</v>
+      </c>
+      <c r="C1257">
+        <v>300112</v>
+      </c>
+      <c r="D1257">
+        <v>1</v>
+      </c>
+      <c r="E1257">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1258" t="s">
+        <v>675</v>
+      </c>
+      <c r="B1258" t="s">
+        <v>676</v>
+      </c>
+      <c r="C1258">
+        <v>300113</v>
+      </c>
+      <c r="D1258">
+        <v>1</v>
+      </c>
+      <c r="E1258">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1259" t="s">
+        <v>675</v>
+      </c>
+      <c r="B1259" t="s">
+        <v>676</v>
+      </c>
+      <c r="C1259">
+        <v>300126</v>
+      </c>
+      <c r="D1259">
+        <v>1</v>
+      </c>
+      <c r="E1259">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1260" t="s">
+        <v>677</v>
+      </c>
+      <c r="B1260" t="s">
+        <v>678</v>
+      </c>
+      <c r="C1260">
+        <v>300102</v>
+      </c>
+      <c r="D1260">
+        <v>1</v>
+      </c>
+      <c r="E1260">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1261" t="s">
+        <v>677</v>
+      </c>
+      <c r="B1261" t="s">
+        <v>678</v>
+      </c>
+      <c r="C1261">
+        <v>300122</v>
+      </c>
+      <c r="D1261">
+        <v>1</v>
+      </c>
+      <c r="E1261">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1262" t="s">
+        <v>677</v>
+      </c>
+      <c r="B1262" t="s">
+        <v>678</v>
+      </c>
+      <c r="C1262">
+        <v>300125</v>
+      </c>
+      <c r="D1262">
+        <v>1</v>
+      </c>
+      <c r="E1262">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1263" t="s">
+        <v>677</v>
+      </c>
+      <c r="B1263" t="s">
+        <v>678</v>
+      </c>
+      <c r="C1263">
+        <v>300126</v>
+      </c>
+      <c r="D1263">
+        <v>1</v>
+      </c>
+      <c r="E1263">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1264" t="s">
+        <v>679</v>
+      </c>
+      <c r="B1264" t="s">
+        <v>680</v>
+      </c>
+      <c r="C1264" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1264" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1264" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1265" t="s">
+        <v>681</v>
+      </c>
+      <c r="B1265" t="s">
+        <v>682</v>
+      </c>
+      <c r="C1265" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1265" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1265" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1266" t="s">
+        <v>683</v>
+      </c>
+      <c r="B1266" t="s">
+        <v>684</v>
+      </c>
+      <c r="C1266" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1266" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1266" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1267" t="s">
+        <v>685</v>
+      </c>
+      <c r="B1267" t="s">
+        <v>686</v>
+      </c>
+      <c r="C1267" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1267" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1267" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1268" t="s">
+        <v>687</v>
+      </c>
+      <c r="B1268" t="s">
+        <v>688</v>
+      </c>
+      <c r="C1268" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1268" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1268" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1269" t="s">
+        <v>689</v>
+      </c>
+      <c r="B1269" t="s">
+        <v>690</v>
+      </c>
+      <c r="C1269" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1269" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1269" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1270" t="s">
+        <v>691</v>
+      </c>
+      <c r="B1270" t="s">
+        <v>692</v>
+      </c>
+      <c r="C1270" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1270" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1270" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1271" t="s">
+        <v>693</v>
+      </c>
+      <c r="B1271" t="s">
+        <v>694</v>
+      </c>
+      <c r="C1271" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1271" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1271" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1272" t="s">
+        <v>695</v>
+      </c>
+      <c r="B1272" t="s">
+        <v>696</v>
+      </c>
+      <c r="C1272" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1272" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1272" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1273" t="s">
+        <v>697</v>
+      </c>
+      <c r="B1273" t="s">
+        <v>698</v>
+      </c>
+      <c r="C1273" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1273" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1273" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1274" t="s">
+        <v>699</v>
+      </c>
+      <c r="B1274" t="s">
+        <v>700</v>
+      </c>
+      <c r="C1274" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1274" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1274" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1275" t="s">
+        <v>701</v>
+      </c>
+      <c r="B1275" t="s">
+        <v>702</v>
+      </c>
+      <c r="C1275" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1275" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1275" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1276" t="s">
+        <v>703</v>
+      </c>
+      <c r="B1276" t="s">
+        <v>704</v>
+      </c>
+      <c r="C1276" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1276" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1276" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1277" t="s">
+        <v>705</v>
+      </c>
+      <c r="B1277" t="s">
+        <v>706</v>
+      </c>
+      <c r="C1277">
+        <v>300104</v>
+      </c>
+      <c r="D1277">
+        <v>1</v>
+      </c>
+      <c r="E1277">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1278" t="s">
+        <v>705</v>
+      </c>
+      <c r="B1278" t="s">
+        <v>706</v>
+      </c>
+      <c r="C1278">
+        <v>300108</v>
+      </c>
+      <c r="D1278">
+        <v>1</v>
+      </c>
+      <c r="E1278">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1279" t="s">
+        <v>705</v>
+      </c>
+      <c r="B1279" t="s">
+        <v>706</v>
+      </c>
+      <c r="C1279">
+        <v>300116</v>
+      </c>
+      <c r="D1279">
+        <v>1</v>
+      </c>
+      <c r="E1279">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1280" t="s">
+        <v>705</v>
+      </c>
+      <c r="B1280" t="s">
+        <v>706</v>
+      </c>
+      <c r="C1280">
+        <v>300117</v>
+      </c>
+      <c r="D1280">
+        <v>1</v>
+      </c>
+      <c r="E1280">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1281" t="s">
         <v>707</v>
       </c>
-      <c r="B1251" t="s">
+      <c r="B1281" t="s">
         <v>708</v>
       </c>
-      <c r="C1251">
+      <c r="C1281">
+        <v>300106</v>
+      </c>
+      <c r="D1281">
+        <v>1</v>
+      </c>
+      <c r="E1281">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1282" t="s">
+        <v>707</v>
+      </c>
+      <c r="B1282" t="s">
+        <v>708</v>
+      </c>
+      <c r="C1282">
+        <v>300110</v>
+      </c>
+      <c r="D1282">
+        <v>1</v>
+      </c>
+      <c r="E1282">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1283" t="s">
+        <v>707</v>
+      </c>
+      <c r="B1283" t="s">
+        <v>708</v>
+      </c>
+      <c r="C1283">
+        <v>300111</v>
+      </c>
+      <c r="D1283">
+        <v>1</v>
+      </c>
+      <c r="E1283">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1284" t="s">
+        <v>707</v>
+      </c>
+      <c r="B1284" t="s">
+        <v>708</v>
+      </c>
+      <c r="C1284">
+        <v>300120</v>
+      </c>
+      <c r="D1284">
+        <v>1</v>
+      </c>
+      <c r="E1284">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1285" t="s">
+        <v>707</v>
+      </c>
+      <c r="B1285" t="s">
+        <v>708</v>
+      </c>
+      <c r="C1285">
         <v>300125</v>
       </c>
-      <c r="D1251">
-        <v>1</v>
-      </c>
-      <c r="E1251">
+      <c r="D1285">
+        <v>1</v>
+      </c>
+      <c r="E1285">
         <v>5</v>
       </c>
     </row>

--- a/docs/战斗掉落配表.xlsx
+++ b/docs/战斗掉落配表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3907" uniqueCount="730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3945" uniqueCount="730">
   <si>
     <t>战斗id</t>
   </si>
@@ -2559,10 +2559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1285"/>
+  <dimension ref="A1:E1304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="D166" sqref="D166"/>
+    <sheetView tabSelected="1" topLeftCell="A1072" workbookViewId="0">
+      <selection activeCell="E1107" sqref="E1107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -20330,18 +20330,18 @@
         <v>1</v>
       </c>
       <c r="E1045">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1046" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1046" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B1046" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C1046">
-        <v>300103</v>
+        <v>300115</v>
       </c>
       <c r="D1046">
         <v>1</v>
@@ -20358,13 +20358,13 @@
         <v>583</v>
       </c>
       <c r="C1047">
-        <v>300104</v>
+        <v>300103</v>
       </c>
       <c r="D1047">
         <v>1</v>
       </c>
       <c r="E1047">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1048" spans="1:5" x14ac:dyDescent="0.2">
@@ -20375,7 +20375,7 @@
         <v>583</v>
       </c>
       <c r="C1048">
-        <v>300113</v>
+        <v>300104</v>
       </c>
       <c r="D1048">
         <v>1</v>
@@ -20392,7 +20392,7 @@
         <v>583</v>
       </c>
       <c r="C1049">
-        <v>300126</v>
+        <v>300113</v>
       </c>
       <c r="D1049">
         <v>1</v>
@@ -20403,30 +20403,30 @@
     </row>
     <row r="1050" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1050" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B1050" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C1050">
-        <v>300103</v>
+        <v>300126</v>
       </c>
       <c r="D1050">
         <v>1</v>
       </c>
       <c r="E1050">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1051" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1051" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B1051" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C1051">
-        <v>300105</v>
+        <v>300116</v>
       </c>
       <c r="D1051">
         <v>1</v>
@@ -20443,13 +20443,13 @@
         <v>585</v>
       </c>
       <c r="C1052">
-        <v>300106</v>
+        <v>300103</v>
       </c>
       <c r="D1052">
         <v>1</v>
       </c>
       <c r="E1052">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1053" spans="1:5" x14ac:dyDescent="0.2">
@@ -20460,13 +20460,13 @@
         <v>585</v>
       </c>
       <c r="C1053">
-        <v>300114</v>
+        <v>300105</v>
       </c>
       <c r="D1053">
         <v>1</v>
       </c>
       <c r="E1053">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1054" spans="1:5" x14ac:dyDescent="0.2">
@@ -20477,7 +20477,7 @@
         <v>585</v>
       </c>
       <c r="C1054">
-        <v>300126</v>
+        <v>300106</v>
       </c>
       <c r="D1054">
         <v>1</v>
@@ -20488,47 +20488,47 @@
     </row>
     <row r="1055" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1055" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B1055" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C1055">
-        <v>300107</v>
+        <v>300114</v>
       </c>
       <c r="D1055">
         <v>1</v>
       </c>
       <c r="E1055">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1056" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1056" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B1056" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C1056">
-        <v>300108</v>
+        <v>300126</v>
       </c>
       <c r="D1056">
         <v>1</v>
       </c>
       <c r="E1056">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1057" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1057" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B1057" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C1057">
-        <v>300109</v>
+        <v>300117</v>
       </c>
       <c r="D1057">
         <v>1</v>
@@ -20545,21 +20545,21 @@
         <v>587</v>
       </c>
       <c r="C1058">
-        <v>300126</v>
+        <v>300107</v>
       </c>
       <c r="D1058">
         <v>1</v>
       </c>
       <c r="E1058">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1059" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1059" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B1059" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C1059">
         <v>300108</v>
@@ -20573,10 +20573,10 @@
     </row>
     <row r="1060" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1060" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B1060" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C1060">
         <v>300109</v>
@@ -20585,86 +20585,86 @@
         <v>1</v>
       </c>
       <c r="E1060">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1061" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1061" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B1061" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C1061">
-        <v>300110</v>
+        <v>300126</v>
       </c>
       <c r="D1061">
         <v>1</v>
       </c>
       <c r="E1061">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1062" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1062" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B1062" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C1062">
-        <v>300126</v>
+        <v>300120</v>
       </c>
       <c r="D1062">
         <v>1</v>
       </c>
       <c r="E1062">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1063" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1063" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B1063" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C1063">
-        <v>300103</v>
+        <v>300108</v>
       </c>
       <c r="D1063">
         <v>1</v>
       </c>
       <c r="E1063">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1064" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1064" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B1064" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C1064">
-        <v>300107</v>
+        <v>300109</v>
       </c>
       <c r="D1064">
         <v>1</v>
       </c>
       <c r="E1064">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1065" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1065" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B1065" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C1065">
-        <v>300111</v>
+        <v>300110</v>
       </c>
       <c r="D1065">
         <v>1</v>
@@ -20675,10 +20675,10 @@
     </row>
     <row r="1066" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1066" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B1066" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C1066">
         <v>300126</v>
@@ -20687,18 +20687,18 @@
         <v>1</v>
       </c>
       <c r="E1066">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1067" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1067" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B1067" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C1067">
-        <v>300101</v>
+        <v>300115</v>
       </c>
       <c r="D1067">
         <v>1</v>
@@ -20709,30 +20709,30 @@
     </row>
     <row r="1068" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1068" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B1068" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C1068">
-        <v>300102</v>
+        <v>300103</v>
       </c>
       <c r="D1068">
         <v>1</v>
       </c>
       <c r="E1068">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1069" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1069" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B1069" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C1069">
-        <v>300105</v>
+        <v>300107</v>
       </c>
       <c r="D1069">
         <v>1</v>
@@ -20743,47 +20743,47 @@
     </row>
     <row r="1070" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1070" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B1070" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C1070">
-        <v>300109</v>
+        <v>300111</v>
       </c>
       <c r="D1070">
         <v>1</v>
       </c>
       <c r="E1070">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1071" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1071" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B1071" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C1071">
-        <v>300114</v>
+        <v>300126</v>
       </c>
       <c r="D1071">
         <v>1</v>
       </c>
       <c r="E1071">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1072" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1072" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B1072" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C1072">
-        <v>300126</v>
+        <v>300116</v>
       </c>
       <c r="D1072">
         <v>1</v>
@@ -20794,13 +20794,13 @@
     </row>
     <row r="1073" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1073" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B1073" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C1073">
-        <v>300107</v>
+        <v>300101</v>
       </c>
       <c r="D1073">
         <v>1</v>
@@ -20811,13 +20811,13 @@
     </row>
     <row r="1074" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1074" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B1074" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C1074">
-        <v>300108</v>
+        <v>300102</v>
       </c>
       <c r="D1074">
         <v>1</v>
@@ -20828,13 +20828,13 @@
     </row>
     <row r="1075" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1075" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B1075" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C1075">
-        <v>300109</v>
+        <v>300105</v>
       </c>
       <c r="D1075">
         <v>1</v>
@@ -20845,30 +20845,30 @@
     </row>
     <row r="1076" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1076" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B1076" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C1076">
-        <v>300110</v>
+        <v>300109</v>
       </c>
       <c r="D1076">
         <v>1</v>
       </c>
       <c r="E1076">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1077" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1077" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B1077" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C1077">
-        <v>300126</v>
+        <v>300114</v>
       </c>
       <c r="D1077">
         <v>1</v>
@@ -20879,285 +20879,285 @@
     </row>
     <row r="1078" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1078" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="B1078" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="C1078">
-        <v>300103</v>
+        <v>300126</v>
       </c>
       <c r="D1078">
         <v>1</v>
       </c>
       <c r="E1078">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1079" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1079" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="B1079" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="C1079">
-        <v>300104</v>
+        <v>300117</v>
       </c>
       <c r="D1079">
         <v>1</v>
       </c>
       <c r="E1079">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1080" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1080" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B1080" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C1080">
-        <v>300111</v>
+        <v>300107</v>
       </c>
       <c r="D1080">
         <v>1</v>
       </c>
       <c r="E1080">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1081" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1081" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B1081" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C1081">
-        <v>300112</v>
+        <v>300108</v>
       </c>
       <c r="D1081">
         <v>1</v>
       </c>
       <c r="E1081">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1082" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1082" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B1082" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C1082">
-        <v>300113</v>
+        <v>300109</v>
       </c>
       <c r="D1082">
         <v>1</v>
       </c>
       <c r="E1082">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1083" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1083" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B1083" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C1083">
-        <v>300126</v>
+        <v>300110</v>
       </c>
       <c r="D1083">
         <v>1</v>
       </c>
       <c r="E1083">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1084" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1084" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B1084" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="C1084">
-        <v>300107</v>
+        <v>300126</v>
       </c>
       <c r="D1084">
         <v>1</v>
       </c>
       <c r="E1084">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1085" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1085" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B1085" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="C1085">
-        <v>300108</v>
+        <v>300120</v>
       </c>
       <c r="D1085">
         <v>1</v>
       </c>
       <c r="E1085">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1086" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1086" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B1086" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C1086">
-        <v>300111</v>
+        <v>300103</v>
       </c>
       <c r="D1086">
         <v>1</v>
       </c>
       <c r="E1086">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1087" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1087" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B1087" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C1087">
-        <v>300112</v>
+        <v>300104</v>
       </c>
       <c r="D1087">
         <v>1</v>
       </c>
       <c r="E1087">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1088" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1088" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B1088" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C1088">
-        <v>300113</v>
+        <v>300111</v>
       </c>
       <c r="D1088">
         <v>1</v>
       </c>
       <c r="E1088">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1089" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1089" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B1089" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C1089">
-        <v>300126</v>
+        <v>300112</v>
       </c>
       <c r="D1089">
         <v>1</v>
       </c>
       <c r="E1089">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1090" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1090" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B1090" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="C1090">
-        <v>300114</v>
+        <v>300113</v>
       </c>
       <c r="D1090">
         <v>1</v>
       </c>
       <c r="E1090">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1091" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1091" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B1091" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="C1091">
-        <v>300115</v>
+        <v>300126</v>
       </c>
       <c r="D1091">
         <v>1</v>
       </c>
       <c r="E1091">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1092" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1092" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B1092" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="C1092">
-        <v>300116</v>
+        <v>300114</v>
       </c>
       <c r="D1092">
         <v>1</v>
       </c>
       <c r="E1092">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1093" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1093" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B1093" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="C1093">
-        <v>300117</v>
+        <v>300115</v>
       </c>
       <c r="D1093">
         <v>1</v>
       </c>
       <c r="E1093">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1094" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1094" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B1094" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C1094">
-        <v>300126</v>
+        <v>300107</v>
       </c>
       <c r="D1094">
         <v>1</v>
@@ -21168,30 +21168,30 @@
     </row>
     <row r="1095" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1095" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="B1095" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="C1095">
-        <v>300111</v>
+        <v>300108</v>
       </c>
       <c r="D1095">
         <v>1</v>
       </c>
       <c r="E1095">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1096" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1096" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="B1096" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="C1096">
-        <v>300112</v>
+        <v>300111</v>
       </c>
       <c r="D1096">
         <v>1</v>
@@ -21202,44 +21202,44 @@
     </row>
     <row r="1097" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1097" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="B1097" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="C1097">
-        <v>300120</v>
+        <v>300112</v>
       </c>
       <c r="D1097">
         <v>1</v>
       </c>
       <c r="E1097">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1098" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1098" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="B1098" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="C1098">
-        <v>300126</v>
+        <v>300113</v>
       </c>
       <c r="D1098">
         <v>1</v>
       </c>
       <c r="E1098">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1099" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1099" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="B1099" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="C1099">
         <v>300126</v>
@@ -21248,32 +21248,32 @@
         <v>1</v>
       </c>
       <c r="E1099">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1100" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="B1100" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="C1100">
-        <v>300113</v>
+        <v>300116</v>
       </c>
       <c r="D1100">
         <v>1</v>
       </c>
       <c r="E1100">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1101" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B1101" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C1101">
         <v>300114</v>
@@ -21287,30 +21287,30 @@
     </row>
     <row r="1102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1102" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B1102" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C1102">
-        <v>300104</v>
+        <v>300115</v>
       </c>
       <c r="D1102">
         <v>1</v>
       </c>
       <c r="E1102">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1103" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B1103" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C1103">
-        <v>300108</v>
+        <v>300116</v>
       </c>
       <c r="D1103">
         <v>1</v>
@@ -21321,30 +21321,30 @@
     </row>
     <row r="1104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1104" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B1104" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C1104">
-        <v>300126</v>
+        <v>300117</v>
       </c>
       <c r="D1104">
         <v>1</v>
       </c>
       <c r="E1104">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1105" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="B1105" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="C1105">
-        <v>300102</v>
+        <v>300126</v>
       </c>
       <c r="D1105">
         <v>1</v>
@@ -21355,13 +21355,13 @@
     </row>
     <row r="1106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1106" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="B1106" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="C1106">
-        <v>300106</v>
+        <v>300120</v>
       </c>
       <c r="D1106">
         <v>1</v>
@@ -21372,13 +21372,13 @@
     </row>
     <row r="1107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1107" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B1107" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="C1107">
-        <v>300110</v>
+        <v>300111</v>
       </c>
       <c r="D1107">
         <v>1</v>
@@ -21389,13 +21389,13 @@
     </row>
     <row r="1108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1108" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B1108" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="C1108">
-        <v>300113</v>
+        <v>300112</v>
       </c>
       <c r="D1108">
         <v>1</v>
@@ -21406,13 +21406,13 @@
     </row>
     <row r="1109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1109" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B1109" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="C1109">
-        <v>300126</v>
+        <v>300120</v>
       </c>
       <c r="D1109">
         <v>1</v>
@@ -21423,47 +21423,47 @@
     </row>
     <row r="1110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1110" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="B1110" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="C1110">
-        <v>300103</v>
+        <v>300126</v>
       </c>
       <c r="D1110">
         <v>1</v>
       </c>
       <c r="E1110">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1111" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="B1111" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="C1111">
-        <v>300104</v>
+        <v>300114</v>
       </c>
       <c r="D1111">
         <v>1</v>
       </c>
       <c r="E1111">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1112" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="B1112" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="C1112">
-        <v>300111</v>
+        <v>300115</v>
       </c>
       <c r="D1112">
         <v>1</v>
@@ -21474,13 +21474,13 @@
     </row>
     <row r="1113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1113" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="B1113" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="C1113">
-        <v>300112</v>
+        <v>300113</v>
       </c>
       <c r="D1113">
         <v>1</v>
@@ -21491,13 +21491,13 @@
     </row>
     <row r="1114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1114" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="B1114" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="C1114">
-        <v>300126</v>
+        <v>300114</v>
       </c>
       <c r="D1114">
         <v>1</v>
@@ -21508,27 +21508,27 @@
     </row>
     <row r="1115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1115" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="B1115" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="C1115">
-        <v>300107</v>
+        <v>300104</v>
       </c>
       <c r="D1115">
         <v>1</v>
       </c>
       <c r="E1115">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1116" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="B1116" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="C1116">
         <v>300108</v>
@@ -21542,13 +21542,13 @@
     </row>
     <row r="1117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1117" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="B1117" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="C1117">
-        <v>300111</v>
+        <v>300126</v>
       </c>
       <c r="D1117">
         <v>1</v>
@@ -21559,30 +21559,30 @@
     </row>
     <row r="1118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1118" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="B1118" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="C1118">
-        <v>300112</v>
+        <v>300115</v>
       </c>
       <c r="D1118">
         <v>1</v>
       </c>
       <c r="E1118">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1119" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="B1119" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="C1119">
-        <v>300126</v>
+        <v>300116</v>
       </c>
       <c r="D1119">
         <v>1</v>
@@ -21593,13 +21593,13 @@
     </row>
     <row r="1120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1120" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="B1120" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="C1120">
-        <v>300106</v>
+        <v>300102</v>
       </c>
       <c r="D1120">
         <v>1</v>
@@ -21610,13 +21610,13 @@
     </row>
     <row r="1121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1121" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="B1121" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="C1121">
-        <v>300110</v>
+        <v>300106</v>
       </c>
       <c r="D1121">
         <v>1</v>
@@ -21627,44 +21627,44 @@
     </row>
     <row r="1122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1122" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="B1122" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="C1122">
-        <v>300113</v>
+        <v>300110</v>
       </c>
       <c r="D1122">
         <v>1</v>
       </c>
       <c r="E1122">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1123" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="B1123" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="C1123">
-        <v>300114</v>
+        <v>300113</v>
       </c>
       <c r="D1123">
         <v>1</v>
       </c>
       <c r="E1123">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1124" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="B1124" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="C1124">
         <v>300126</v>
@@ -21673,18 +21673,18 @@
         <v>1</v>
       </c>
       <c r="E1124">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1125" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="B1125" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="C1125">
-        <v>300112</v>
+        <v>300117</v>
       </c>
       <c r="D1125">
         <v>1</v>
@@ -21695,13 +21695,13 @@
     </row>
     <row r="1126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1126" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="B1126" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="C1126">
-        <v>300113</v>
+        <v>300120</v>
       </c>
       <c r="D1126">
         <v>1</v>
@@ -21712,30 +21712,30 @@
     </row>
     <row r="1127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1127" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="B1127" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="C1127">
-        <v>300124</v>
+        <v>300103</v>
       </c>
       <c r="D1127">
         <v>1</v>
       </c>
       <c r="E1127">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1128" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="B1128" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="C1128">
-        <v>300126</v>
+        <v>300104</v>
       </c>
       <c r="D1128">
         <v>1</v>
@@ -21746,44 +21746,44 @@
     </row>
     <row r="1129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1129" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="B1129" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="C1129">
-        <v>300122</v>
+        <v>300111</v>
       </c>
       <c r="D1129">
         <v>1</v>
       </c>
       <c r="E1129">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1130" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="B1130" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="C1130">
-        <v>300125</v>
+        <v>300112</v>
       </c>
       <c r="D1130">
         <v>1</v>
       </c>
       <c r="E1130">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1131" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="B1131" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="C1131">
         <v>300126</v>
@@ -21792,18 +21792,18 @@
         <v>1</v>
       </c>
       <c r="E1131">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1132" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="B1132" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="C1132">
-        <v>300113</v>
+        <v>300114</v>
       </c>
       <c r="D1132">
         <v>1</v>
@@ -21814,13 +21814,13 @@
     </row>
     <row r="1133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1133" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="B1133" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="C1133">
-        <v>300114</v>
+        <v>300115</v>
       </c>
       <c r="D1133">
         <v>1</v>
@@ -21831,163 +21831,163 @@
     </row>
     <row r="1134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1134" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="B1134" t="s">
-        <v>715</v>
+        <v>611</v>
       </c>
       <c r="C1134">
-        <v>301008</v>
+        <v>300107</v>
       </c>
       <c r="D1134">
         <v>1</v>
       </c>
       <c r="E1134">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1135" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="B1135" t="s">
-        <v>715</v>
+        <v>611</v>
       </c>
       <c r="C1135">
-        <v>301009</v>
+        <v>300108</v>
       </c>
       <c r="D1135">
         <v>1</v>
       </c>
       <c r="E1135">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1136" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="B1136" t="s">
-        <v>715</v>
+        <v>611</v>
       </c>
       <c r="C1136">
-        <v>301010</v>
+        <v>300111</v>
       </c>
       <c r="D1136">
         <v>1</v>
       </c>
       <c r="E1136">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1137" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="B1137" t="s">
-        <v>715</v>
+        <v>611</v>
       </c>
       <c r="C1137">
-        <v>300126</v>
+        <v>300112</v>
       </c>
       <c r="D1137">
         <v>1</v>
       </c>
       <c r="E1137">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1138" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="B1138" t="s">
-        <v>715</v>
+        <v>611</v>
       </c>
       <c r="C1138">
-        <v>300122</v>
+        <v>300126</v>
       </c>
       <c r="D1138">
         <v>1</v>
       </c>
       <c r="E1138">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1139" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="B1139" t="s">
-        <v>715</v>
+        <v>613</v>
       </c>
       <c r="C1139">
-        <v>300124</v>
+        <v>300106</v>
       </c>
       <c r="D1139">
         <v>1</v>
       </c>
       <c r="E1139">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1140" t="s">
+        <v>612</v>
+      </c>
+      <c r="B1140" t="s">
+        <v>613</v>
+      </c>
+      <c r="C1140">
+        <v>300110</v>
+      </c>
+      <c r="D1140">
+        <v>1</v>
+      </c>
+      <c r="E1140">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1141" t="s">
+        <v>612</v>
+      </c>
+      <c r="B1141" t="s">
+        <v>613</v>
+      </c>
+      <c r="C1141">
+        <v>300113</v>
+      </c>
+      <c r="D1141">
+        <v>1</v>
+      </c>
+      <c r="E1141">
         <v>10</v>
       </c>
     </row>
-    <row r="1140" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1140">
-        <v>10310021</v>
-      </c>
-      <c r="B1140" t="s">
-        <v>716</v>
-      </c>
-      <c r="C1140">
-        <v>301011</v>
-      </c>
-      <c r="D1140">
-        <v>1</v>
-      </c>
-      <c r="E1140">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="1141" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1141">
-        <v>10310021</v>
-      </c>
-      <c r="B1141" t="s">
-        <v>716</v>
-      </c>
-      <c r="C1141">
-        <v>301009</v>
-      </c>
-      <c r="D1141">
-        <v>1</v>
-      </c>
-      <c r="E1141">
-        <v>100</v>
-      </c>
-    </row>
     <row r="1142" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1142">
-        <v>10310021</v>
+      <c r="A1142" t="s">
+        <v>612</v>
       </c>
       <c r="B1142" t="s">
-        <v>716</v>
+        <v>613</v>
       </c>
       <c r="C1142">
-        <v>301010</v>
+        <v>300114</v>
       </c>
       <c r="D1142">
         <v>1</v>
       </c>
       <c r="E1142">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1143" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1143">
-        <v>10310021</v>
+      <c r="A1143" t="s">
+        <v>612</v>
       </c>
       <c r="B1143" t="s">
-        <v>716</v>
+        <v>613</v>
       </c>
       <c r="C1143">
         <v>300126</v>
@@ -21996,117 +21996,117 @@
         <v>1</v>
       </c>
       <c r="E1143">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1144" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1144">
-        <v>10310021</v>
+      <c r="A1144" t="s">
+        <v>614</v>
       </c>
       <c r="B1144" t="s">
-        <v>716</v>
+        <v>615</v>
       </c>
       <c r="C1144">
+        <v>300112</v>
+      </c>
+      <c r="D1144">
+        <v>1</v>
+      </c>
+      <c r="E1144">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1145" t="s">
+        <v>614</v>
+      </c>
+      <c r="B1145" t="s">
+        <v>615</v>
+      </c>
+      <c r="C1145">
+        <v>300113</v>
+      </c>
+      <c r="D1145">
+        <v>1</v>
+      </c>
+      <c r="E1145">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1146" t="s">
+        <v>614</v>
+      </c>
+      <c r="B1146" t="s">
+        <v>615</v>
+      </c>
+      <c r="C1146">
+        <v>300124</v>
+      </c>
+      <c r="D1146">
+        <v>1</v>
+      </c>
+      <c r="E1146">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1147" t="s">
+        <v>614</v>
+      </c>
+      <c r="B1147" t="s">
+        <v>615</v>
+      </c>
+      <c r="C1147">
+        <v>300126</v>
+      </c>
+      <c r="D1147">
+        <v>1</v>
+      </c>
+      <c r="E1147">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1148" t="s">
+        <v>616</v>
+      </c>
+      <c r="B1148" t="s">
+        <v>617</v>
+      </c>
+      <c r="C1148">
         <v>300122</v>
       </c>
-      <c r="D1144">
-        <v>1</v>
-      </c>
-      <c r="E1144">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="1145" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1145">
-        <v>10310021</v>
-      </c>
-      <c r="B1145" t="s">
-        <v>716</v>
-      </c>
-      <c r="C1145">
-        <v>300124</v>
-      </c>
-      <c r="D1145">
-        <v>1</v>
-      </c>
-      <c r="E1145">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="1146" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1146">
-        <v>10310022</v>
-      </c>
-      <c r="B1146" t="s">
-        <v>717</v>
-      </c>
-      <c r="C1146">
-        <v>301008</v>
-      </c>
-      <c r="D1146">
-        <v>1</v>
-      </c>
-      <c r="E1146">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="1147" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1147">
-        <v>10310022</v>
-      </c>
-      <c r="B1147" t="s">
-        <v>717</v>
-      </c>
-      <c r="C1147">
-        <v>301012</v>
-      </c>
-      <c r="D1147">
-        <v>1</v>
-      </c>
-      <c r="E1147">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="1148" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1148">
-        <v>10310022</v>
-      </c>
-      <c r="B1148" t="s">
-        <v>717</v>
-      </c>
-      <c r="C1148">
-        <v>301009</v>
-      </c>
       <c r="D1148">
         <v>1</v>
       </c>
       <c r="E1148">
-        <v>100</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1149" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1149">
-        <v>10310022</v>
+      <c r="A1149" t="s">
+        <v>616</v>
       </c>
       <c r="B1149" t="s">
-        <v>717</v>
+        <v>617</v>
       </c>
       <c r="C1149">
-        <v>301010</v>
+        <v>300125</v>
       </c>
       <c r="D1149">
         <v>1</v>
       </c>
       <c r="E1149">
-        <v>100</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1150" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1150">
-        <v>10310022</v>
+      <c r="A1150" t="s">
+        <v>616</v>
       </c>
       <c r="B1150" t="s">
-        <v>717</v>
+        <v>617</v>
       </c>
       <c r="C1150">
         <v>300126</v>
@@ -22115,100 +22115,100 @@
         <v>1</v>
       </c>
       <c r="E1150">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1151" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1151">
-        <v>10310022</v>
+      <c r="A1151" t="s">
+        <v>616</v>
       </c>
       <c r="B1151" t="s">
-        <v>717</v>
+        <v>617</v>
       </c>
       <c r="C1151">
-        <v>300122</v>
+        <v>300113</v>
       </c>
       <c r="D1151">
         <v>1</v>
       </c>
       <c r="E1151">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1152" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1152">
-        <v>10310022</v>
+      <c r="A1152" t="s">
+        <v>616</v>
       </c>
       <c r="B1152" t="s">
-        <v>717</v>
+        <v>617</v>
       </c>
       <c r="C1152">
-        <v>300124</v>
+        <v>300114</v>
       </c>
       <c r="D1152">
         <v>1</v>
       </c>
       <c r="E1152">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1153" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1153">
-        <v>10310022</v>
+      <c r="A1153" t="s">
+        <v>618</v>
       </c>
       <c r="B1153" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C1153">
-        <v>300124</v>
+        <v>301008</v>
       </c>
       <c r="D1153">
         <v>1</v>
       </c>
       <c r="E1153">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1154" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B1154" t="s">
-        <v>620</v>
+        <v>715</v>
       </c>
       <c r="C1154">
-        <v>300101</v>
+        <v>301009</v>
       </c>
       <c r="D1154">
         <v>1</v>
       </c>
       <c r="E1154">
-        <v>15</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1155" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B1155" t="s">
-        <v>620</v>
+        <v>715</v>
       </c>
       <c r="C1155">
-        <v>300102</v>
+        <v>301010</v>
       </c>
       <c r="D1155">
         <v>1</v>
       </c>
       <c r="E1155">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1156" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B1156" t="s">
-        <v>620</v>
+        <v>715</v>
       </c>
       <c r="C1156">
         <v>300126</v>
@@ -22217,35 +22217,35 @@
         <v>1</v>
       </c>
       <c r="E1156">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1157" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B1157" t="s">
-        <v>622</v>
+        <v>715</v>
       </c>
       <c r="C1157">
-        <v>300103</v>
+        <v>300122</v>
       </c>
       <c r="D1157">
         <v>1</v>
       </c>
       <c r="E1157">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1158" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B1158" t="s">
-        <v>622</v>
+        <v>715</v>
       </c>
       <c r="C1158">
-        <v>300104</v>
+        <v>300124</v>
       </c>
       <c r="D1158">
         <v>1</v>
@@ -22255,286 +22255,286 @@
       </c>
     </row>
     <row r="1159" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1159" t="s">
-        <v>621</v>
+      <c r="A1159">
+        <v>10310021</v>
       </c>
       <c r="B1159" t="s">
-        <v>622</v>
+        <v>716</v>
       </c>
       <c r="C1159">
-        <v>300112</v>
+        <v>301011</v>
       </c>
       <c r="D1159">
         <v>1</v>
       </c>
       <c r="E1159">
-        <v>5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1160" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1160" t="s">
-        <v>621</v>
+      <c r="A1160">
+        <v>10310021</v>
       </c>
       <c r="B1160" t="s">
-        <v>622</v>
+        <v>716</v>
       </c>
       <c r="C1160">
-        <v>300113</v>
+        <v>301009</v>
       </c>
       <c r="D1160">
         <v>1</v>
       </c>
       <c r="E1160">
-        <v>5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1161" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1161" t="s">
-        <v>621</v>
+      <c r="A1161">
+        <v>10310021</v>
       </c>
       <c r="B1161" t="s">
-        <v>622</v>
+        <v>716</v>
       </c>
       <c r="C1161">
+        <v>301010</v>
+      </c>
+      <c r="D1161">
+        <v>1</v>
+      </c>
+      <c r="E1161">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1162">
+        <v>10310021</v>
+      </c>
+      <c r="B1162" t="s">
+        <v>716</v>
+      </c>
+      <c r="C1162">
         <v>300126</v>
       </c>
-      <c r="D1161">
-        <v>1</v>
-      </c>
-      <c r="E1161">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="1162" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1162" t="s">
-        <v>623</v>
-      </c>
-      <c r="B1162" t="s">
-        <v>624</v>
-      </c>
-      <c r="C1162">
-        <v>300107</v>
-      </c>
       <c r="D1162">
         <v>1</v>
       </c>
       <c r="E1162">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="1163" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1163" t="s">
-        <v>623</v>
+      <c r="A1163">
+        <v>10310021</v>
       </c>
       <c r="B1163" t="s">
-        <v>624</v>
+        <v>716</v>
       </c>
       <c r="C1163">
-        <v>300108</v>
+        <v>300122</v>
       </c>
       <c r="D1163">
         <v>1</v>
       </c>
       <c r="E1163">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1164" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1164" t="s">
-        <v>623</v>
+      <c r="A1164">
+        <v>10310021</v>
       </c>
       <c r="B1164" t="s">
-        <v>624</v>
+        <v>716</v>
       </c>
       <c r="C1164">
-        <v>300112</v>
+        <v>300124</v>
       </c>
       <c r="D1164">
         <v>1</v>
       </c>
       <c r="E1164">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1165" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1165" t="s">
-        <v>623</v>
+      <c r="A1165">
+        <v>10310022</v>
       </c>
       <c r="B1165" t="s">
-        <v>624</v>
+        <v>717</v>
       </c>
       <c r="C1165">
-        <v>300113</v>
+        <v>301008</v>
       </c>
       <c r="D1165">
         <v>1</v>
       </c>
       <c r="E1165">
-        <v>5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1166" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1166" t="s">
-        <v>623</v>
+      <c r="A1166">
+        <v>10310022</v>
       </c>
       <c r="B1166" t="s">
-        <v>624</v>
+        <v>717</v>
       </c>
       <c r="C1166">
+        <v>301012</v>
+      </c>
+      <c r="D1166">
+        <v>1</v>
+      </c>
+      <c r="E1166">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1167">
+        <v>10310022</v>
+      </c>
+      <c r="B1167" t="s">
+        <v>717</v>
+      </c>
+      <c r="C1167">
+        <v>301009</v>
+      </c>
+      <c r="D1167">
+        <v>1</v>
+      </c>
+      <c r="E1167">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1168">
+        <v>10310022</v>
+      </c>
+      <c r="B1168" t="s">
+        <v>717</v>
+      </c>
+      <c r="C1168">
+        <v>301010</v>
+      </c>
+      <c r="D1168">
+        <v>1</v>
+      </c>
+      <c r="E1168">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1169">
+        <v>10310022</v>
+      </c>
+      <c r="B1169" t="s">
+        <v>717</v>
+      </c>
+      <c r="C1169">
+        <v>300126</v>
+      </c>
+      <c r="D1169">
+        <v>1</v>
+      </c>
+      <c r="E1169">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1170">
+        <v>10310022</v>
+      </c>
+      <c r="B1170" t="s">
+        <v>717</v>
+      </c>
+      <c r="C1170">
         <v>300122</v>
       </c>
-      <c r="D1166">
-        <v>1</v>
-      </c>
-      <c r="E1166">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1167" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1167" t="s">
-        <v>623</v>
-      </c>
-      <c r="B1167" t="s">
-        <v>624</v>
-      </c>
-      <c r="C1167">
-        <v>300126</v>
-      </c>
-      <c r="D1167">
-        <v>1</v>
-      </c>
-      <c r="E1167">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="1168" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1168" t="s">
-        <v>623</v>
-      </c>
-      <c r="B1168" t="s">
-        <v>624</v>
-      </c>
-      <c r="C1168">
-        <v>300126</v>
-      </c>
-      <c r="D1168">
-        <v>1</v>
-      </c>
-      <c r="E1168">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="1169" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1169" t="s">
-        <v>625</v>
-      </c>
-      <c r="B1169" t="s">
-        <v>626</v>
-      </c>
-      <c r="C1169" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1169" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1169" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="1170" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1170" t="s">
-        <v>627</v>
-      </c>
-      <c r="B1170" t="s">
-        <v>628</v>
-      </c>
-      <c r="C1170" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1170" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1170" t="s">
-        <v>7</v>
+      <c r="D1170">
+        <v>1</v>
+      </c>
+      <c r="E1170">
+        <v>40</v>
       </c>
     </row>
     <row r="1171" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1171" t="s">
-        <v>629</v>
+      <c r="A1171">
+        <v>10310022</v>
       </c>
       <c r="B1171" t="s">
-        <v>630</v>
-      </c>
-      <c r="C1171" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1171" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1171" t="s">
-        <v>7</v>
+        <v>717</v>
+      </c>
+      <c r="C1171">
+        <v>300124</v>
+      </c>
+      <c r="D1171">
+        <v>1</v>
+      </c>
+      <c r="E1171">
+        <v>40</v>
       </c>
     </row>
     <row r="1172" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1172" t="s">
-        <v>631</v>
+      <c r="A1172">
+        <v>10310022</v>
       </c>
       <c r="B1172" t="s">
-        <v>632</v>
-      </c>
-      <c r="C1172" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1172" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1172" t="s">
-        <v>7</v>
+        <v>717</v>
+      </c>
+      <c r="C1172">
+        <v>300124</v>
+      </c>
+      <c r="D1172">
+        <v>1</v>
+      </c>
+      <c r="E1172">
+        <v>40</v>
       </c>
     </row>
     <row r="1173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1173" t="s">
-        <v>633</v>
+        <v>619</v>
       </c>
       <c r="B1173" t="s">
-        <v>634</v>
+        <v>620</v>
       </c>
       <c r="C1173">
-        <v>300103</v>
+        <v>300101</v>
       </c>
       <c r="D1173">
         <v>1</v>
       </c>
       <c r="E1173">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1174" t="s">
-        <v>633</v>
+        <v>619</v>
       </c>
       <c r="B1174" t="s">
-        <v>634</v>
+        <v>620</v>
       </c>
       <c r="C1174">
-        <v>300104</v>
+        <v>300102</v>
       </c>
       <c r="D1174">
         <v>1</v>
       </c>
       <c r="E1174">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1175" t="s">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="B1175" t="s">
-        <v>636</v>
+        <v>620</v>
       </c>
       <c r="C1175">
-        <v>300101</v>
+        <v>300126</v>
       </c>
       <c r="D1175">
         <v>1</v>
@@ -22545,10 +22545,10 @@
     </row>
     <row r="1176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1176" t="s">
-        <v>635</v>
+        <v>621</v>
       </c>
       <c r="B1176" t="s">
-        <v>636</v>
+        <v>622</v>
       </c>
       <c r="C1176">
         <v>300103</v>
@@ -22557,188 +22557,188 @@
         <v>1</v>
       </c>
       <c r="E1176">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1177" t="s">
-        <v>635</v>
+        <v>621</v>
       </c>
       <c r="B1177" t="s">
-        <v>636</v>
+        <v>622</v>
       </c>
       <c r="C1177">
-        <v>300107</v>
+        <v>300104</v>
       </c>
       <c r="D1177">
         <v>1</v>
       </c>
       <c r="E1177">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1178" t="s">
-        <v>637</v>
+        <v>621</v>
       </c>
       <c r="B1178" t="s">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="C1178">
-        <v>300111</v>
+        <v>300112</v>
       </c>
       <c r="D1178">
         <v>1</v>
       </c>
       <c r="E1178">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1179" t="s">
-        <v>637</v>
+        <v>621</v>
       </c>
       <c r="B1179" t="s">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="C1179">
-        <v>300112</v>
+        <v>300113</v>
       </c>
       <c r="D1179">
         <v>1</v>
       </c>
       <c r="E1179">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1180" t="s">
-        <v>637</v>
+        <v>621</v>
       </c>
       <c r="B1180" t="s">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="C1180">
-        <v>300113</v>
+        <v>300126</v>
       </c>
       <c r="D1180">
         <v>1</v>
       </c>
       <c r="E1180">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1181" t="s">
-        <v>637</v>
+        <v>623</v>
       </c>
       <c r="B1181" t="s">
-        <v>638</v>
+        <v>624</v>
       </c>
       <c r="C1181">
-        <v>300114</v>
+        <v>300107</v>
       </c>
       <c r="D1181">
         <v>1</v>
       </c>
       <c r="E1181">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1182" t="s">
-        <v>639</v>
+        <v>623</v>
       </c>
       <c r="B1182" t="s">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="C1182">
-        <v>300107</v>
+        <v>300108</v>
       </c>
       <c r="D1182">
         <v>1</v>
       </c>
       <c r="E1182">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1183" t="s">
-        <v>639</v>
+        <v>623</v>
       </c>
       <c r="B1183" t="s">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="C1183">
-        <v>300108</v>
+        <v>300112</v>
       </c>
       <c r="D1183">
         <v>1</v>
       </c>
       <c r="E1183">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1184" t="s">
-        <v>641</v>
+        <v>623</v>
       </c>
       <c r="B1184" t="s">
-        <v>642</v>
+        <v>624</v>
       </c>
       <c r="C1184">
-        <v>300101</v>
+        <v>300113</v>
       </c>
       <c r="D1184">
         <v>1</v>
       </c>
       <c r="E1184">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1185" t="s">
-        <v>641</v>
+        <v>623</v>
       </c>
       <c r="B1185" t="s">
-        <v>642</v>
+        <v>624</v>
       </c>
       <c r="C1185">
-        <v>300103</v>
+        <v>300122</v>
       </c>
       <c r="D1185">
         <v>1</v>
       </c>
       <c r="E1185">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1186" t="s">
-        <v>641</v>
+        <v>623</v>
       </c>
       <c r="B1186" t="s">
-        <v>642</v>
+        <v>624</v>
       </c>
       <c r="C1186">
-        <v>300107</v>
+        <v>300126</v>
       </c>
       <c r="D1186">
         <v>1</v>
       </c>
       <c r="E1186">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1187" t="s">
-        <v>643</v>
+        <v>623</v>
       </c>
       <c r="B1187" t="s">
-        <v>644</v>
+        <v>624</v>
       </c>
       <c r="C1187">
-        <v>300105</v>
+        <v>300126</v>
       </c>
       <c r="D1187">
         <v>1</v>
@@ -22749,115 +22749,115 @@
     </row>
     <row r="1188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1188" t="s">
-        <v>643</v>
+        <v>625</v>
       </c>
       <c r="B1188" t="s">
-        <v>644</v>
-      </c>
-      <c r="C1188">
-        <v>300106</v>
-      </c>
-      <c r="D1188">
-        <v>1</v>
-      </c>
-      <c r="E1188">
-        <v>8</v>
+        <v>626</v>
+      </c>
+      <c r="C1188" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1188" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1188" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="1189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1189" t="s">
-        <v>643</v>
+        <v>627</v>
       </c>
       <c r="B1189" t="s">
-        <v>644</v>
-      </c>
-      <c r="C1189">
-        <v>300109</v>
-      </c>
-      <c r="D1189">
-        <v>1</v>
-      </c>
-      <c r="E1189">
-        <v>8</v>
+        <v>628</v>
+      </c>
+      <c r="C1189" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1189" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1189" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="1190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1190" t="s">
-        <v>643</v>
+        <v>629</v>
       </c>
       <c r="B1190" t="s">
-        <v>644</v>
-      </c>
-      <c r="C1190">
-        <v>300110</v>
-      </c>
-      <c r="D1190">
-        <v>1</v>
-      </c>
-      <c r="E1190">
-        <v>8</v>
+        <v>630</v>
+      </c>
+      <c r="C1190" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1190" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1190" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="1191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1191" t="s">
-        <v>645</v>
+        <v>631</v>
       </c>
       <c r="B1191" t="s">
-        <v>646</v>
-      </c>
-      <c r="C1191">
-        <v>300112</v>
-      </c>
-      <c r="D1191">
-        <v>1</v>
-      </c>
-      <c r="E1191">
-        <v>10</v>
+        <v>632</v>
+      </c>
+      <c r="C1191" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1191" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1191" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="1192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1192" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="B1192" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="C1192">
-        <v>300113</v>
+        <v>300103</v>
       </c>
       <c r="D1192">
         <v>1</v>
       </c>
       <c r="E1192">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1193" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="B1193" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="C1193">
-        <v>300124</v>
+        <v>300104</v>
       </c>
       <c r="D1193">
         <v>1</v>
       </c>
       <c r="E1193">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1194" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="B1194" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="C1194">
-        <v>300111</v>
+        <v>300101</v>
       </c>
       <c r="D1194">
         <v>1</v>
@@ -22868,129 +22868,129 @@
     </row>
     <row r="1195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1195" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="B1195" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="C1195">
-        <v>300114</v>
+        <v>300103</v>
       </c>
       <c r="D1195">
         <v>1</v>
       </c>
       <c r="E1195">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1196" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="B1196" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="C1196">
-        <v>300115</v>
+        <v>300107</v>
       </c>
       <c r="D1196">
         <v>1</v>
       </c>
       <c r="E1196">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1197" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="B1197" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="C1197">
-        <v>300117</v>
+        <v>300111</v>
       </c>
       <c r="D1197">
         <v>1</v>
       </c>
       <c r="E1197">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1198" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="B1198" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="C1198">
-        <v>300126</v>
+        <v>300112</v>
       </c>
       <c r="D1198">
         <v>1</v>
       </c>
       <c r="E1198">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1199" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="B1199" t="s">
-        <v>650</v>
+        <v>638</v>
       </c>
       <c r="C1199">
-        <v>300102</v>
+        <v>300113</v>
       </c>
       <c r="D1199">
         <v>1</v>
       </c>
       <c r="E1199">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1200" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="B1200" t="s">
-        <v>650</v>
+        <v>638</v>
       </c>
       <c r="C1200">
-        <v>300104</v>
+        <v>300114</v>
       </c>
       <c r="D1200">
         <v>1</v>
       </c>
       <c r="E1200">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1201" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="B1201" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="C1201">
-        <v>300106</v>
+        <v>300107</v>
       </c>
       <c r="D1201">
         <v>1</v>
       </c>
       <c r="E1201">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1202" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="B1202" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="C1202">
         <v>300108</v>
@@ -22999,120 +22999,120 @@
         <v>1</v>
       </c>
       <c r="E1202">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1203" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="B1203" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="C1203">
-        <v>300110</v>
+        <v>300101</v>
       </c>
       <c r="D1203">
         <v>1</v>
       </c>
       <c r="E1203">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1204" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="B1204" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="C1204">
-        <v>300111</v>
+        <v>300103</v>
       </c>
       <c r="D1204">
         <v>1</v>
       </c>
       <c r="E1204">
-        <v>100</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1205" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="B1205" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="C1205">
-        <v>300112</v>
+        <v>300107</v>
       </c>
       <c r="D1205">
         <v>1</v>
       </c>
       <c r="E1205">
-        <v>100</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1206" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="B1206" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="C1206">
-        <v>300113</v>
+        <v>300105</v>
       </c>
       <c r="D1206">
         <v>1</v>
       </c>
       <c r="E1206">
-        <v>100</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1207" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="B1207" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="C1207">
-        <v>300115</v>
+        <v>300106</v>
       </c>
       <c r="D1207">
         <v>1</v>
       </c>
       <c r="E1207">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1208" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="B1208" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="C1208">
-        <v>300120</v>
+        <v>300109</v>
       </c>
       <c r="D1208">
         <v>1</v>
       </c>
       <c r="E1208">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1209" t="s">
-        <v>655</v>
+        <v>643</v>
       </c>
       <c r="B1209" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
       <c r="C1209">
-        <v>300114</v>
+        <v>300110</v>
       </c>
       <c r="D1209">
         <v>1</v>
@@ -23123,302 +23123,302 @@
     </row>
     <row r="1210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1210" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="B1210" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="C1210">
-        <v>300125</v>
+        <v>300112</v>
       </c>
       <c r="D1210">
         <v>1</v>
       </c>
       <c r="E1210">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1211" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="B1211" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="C1211">
-        <v>300112</v>
+        <v>300113</v>
       </c>
       <c r="D1211">
         <v>1</v>
       </c>
       <c r="E1211">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1212" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
       <c r="B1212" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="C1212">
-        <v>300103</v>
+        <v>300124</v>
       </c>
       <c r="D1212">
         <v>1</v>
       </c>
       <c r="E1212">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1213" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="B1213" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="C1213">
-        <v>300107</v>
+        <v>300111</v>
       </c>
       <c r="D1213">
         <v>1</v>
       </c>
       <c r="E1213">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1214" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="B1214" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
       <c r="C1214">
-        <v>300102</v>
+        <v>300114</v>
       </c>
       <c r="D1214">
         <v>1</v>
       </c>
       <c r="E1214">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1215" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="B1215" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
       <c r="C1215">
-        <v>300113</v>
+        <v>300115</v>
       </c>
       <c r="D1215">
         <v>1</v>
       </c>
       <c r="E1215">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1216" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="B1216" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
       <c r="C1216">
-        <v>300126</v>
+        <v>300117</v>
       </c>
       <c r="D1216">
         <v>1</v>
       </c>
       <c r="E1216">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1217" t="s">
-        <v>661</v>
+        <v>647</v>
       </c>
       <c r="B1217" t="s">
-        <v>662</v>
+        <v>648</v>
       </c>
       <c r="C1217">
-        <v>300112</v>
+        <v>300126</v>
       </c>
       <c r="D1217">
         <v>1</v>
       </c>
       <c r="E1217">
-        <v>100</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1218" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="B1218" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
       <c r="C1218">
-        <v>300113</v>
+        <v>300102</v>
       </c>
       <c r="D1218">
         <v>1</v>
       </c>
       <c r="E1218">
-        <v>100</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1219" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="B1219" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
       <c r="C1219">
-        <v>300126</v>
+        <v>300104</v>
       </c>
       <c r="D1219">
         <v>1</v>
       </c>
       <c r="E1219">
-        <v>100</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1220" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="B1220" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
       <c r="C1220">
-        <v>300114</v>
+        <v>300106</v>
       </c>
       <c r="D1220">
         <v>1</v>
       </c>
       <c r="E1220">
-        <v>100</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1221" t="s">
-        <v>663</v>
+        <v>649</v>
       </c>
       <c r="B1221" t="s">
-        <v>664</v>
+        <v>650</v>
       </c>
       <c r="C1221">
-        <v>300103</v>
+        <v>300108</v>
       </c>
       <c r="D1221">
         <v>1</v>
       </c>
       <c r="E1221">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1222" t="s">
-        <v>663</v>
+        <v>649</v>
       </c>
       <c r="B1222" t="s">
-        <v>664</v>
+        <v>650</v>
       </c>
       <c r="C1222">
-        <v>300104</v>
+        <v>300110</v>
       </c>
       <c r="D1222">
         <v>1</v>
       </c>
       <c r="E1222">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1223" t="s">
-        <v>663</v>
+        <v>651</v>
       </c>
       <c r="B1223" t="s">
-        <v>664</v>
+        <v>652</v>
       </c>
       <c r="C1223">
-        <v>300126</v>
+        <v>300111</v>
       </c>
       <c r="D1223">
         <v>1</v>
       </c>
       <c r="E1223">
-        <v>4</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1224" t="s">
-        <v>665</v>
+        <v>651</v>
       </c>
       <c r="B1224" t="s">
-        <v>666</v>
+        <v>652</v>
       </c>
       <c r="C1224">
-        <v>300107</v>
+        <v>300112</v>
       </c>
       <c r="D1224">
         <v>1</v>
       </c>
       <c r="E1224">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1225" t="s">
-        <v>665</v>
+        <v>651</v>
       </c>
       <c r="B1225" t="s">
-        <v>666</v>
+        <v>652</v>
       </c>
       <c r="C1225">
-        <v>300108</v>
+        <v>300113</v>
       </c>
       <c r="D1225">
         <v>1</v>
       </c>
       <c r="E1225">
-        <v>6</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1226" t="s">
-        <v>665</v>
+        <v>653</v>
       </c>
       <c r="B1226" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
       <c r="C1226">
-        <v>300125</v>
+        <v>300115</v>
       </c>
       <c r="D1226">
         <v>1</v>
       </c>
       <c r="E1226">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1227" t="s">
-        <v>667</v>
+        <v>653</v>
       </c>
       <c r="B1227" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="C1227">
-        <v>300111</v>
+        <v>300120</v>
       </c>
       <c r="D1227">
         <v>1</v>
@@ -23429,13 +23429,13 @@
     </row>
     <row r="1228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1228" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
       <c r="B1228" t="s">
-        <v>668</v>
+        <v>656</v>
       </c>
       <c r="C1228">
-        <v>300112</v>
+        <v>300114</v>
       </c>
       <c r="D1228">
         <v>1</v>
@@ -23446,98 +23446,98 @@
     </row>
     <row r="1229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1229" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
       <c r="B1229" t="s">
-        <v>668</v>
+        <v>656</v>
       </c>
       <c r="C1229">
-        <v>300115</v>
+        <v>300125</v>
       </c>
       <c r="D1229">
         <v>1</v>
       </c>
       <c r="E1229">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1230" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
       <c r="B1230" t="s">
-        <v>668</v>
+        <v>656</v>
       </c>
       <c r="C1230">
-        <v>300124</v>
+        <v>300112</v>
       </c>
       <c r="D1230">
         <v>1</v>
       </c>
       <c r="E1230">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1231" t="s">
-        <v>669</v>
+        <v>657</v>
       </c>
       <c r="B1231" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
       <c r="C1231">
-        <v>300113</v>
+        <v>300103</v>
       </c>
       <c r="D1231">
         <v>1</v>
       </c>
       <c r="E1231">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1232" t="s">
-        <v>669</v>
+        <v>657</v>
       </c>
       <c r="B1232" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
       <c r="C1232">
-        <v>300122</v>
+        <v>300107</v>
       </c>
       <c r="D1232">
         <v>1</v>
       </c>
       <c r="E1232">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1233" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="B1233" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="C1233">
-        <v>300126</v>
+        <v>300102</v>
       </c>
       <c r="D1233">
         <v>1</v>
       </c>
       <c r="E1233">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1234" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="B1234" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="C1234">
-        <v>300102</v>
+        <v>300113</v>
       </c>
       <c r="D1234">
         <v>1</v>
@@ -23548,61 +23548,61 @@
     </row>
     <row r="1235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1235" t="s">
-        <v>671</v>
+        <v>659</v>
       </c>
       <c r="B1235" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="C1235">
-        <v>300101</v>
+        <v>300126</v>
       </c>
       <c r="D1235">
         <v>1</v>
       </c>
       <c r="E1235">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1236" t="s">
-        <v>718</v>
+        <v>661</v>
       </c>
       <c r="B1236" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C1236">
-        <v>300103</v>
+        <v>300112</v>
       </c>
       <c r="D1236">
         <v>1</v>
       </c>
       <c r="E1236">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1237" t="s">
-        <v>719</v>
+        <v>661</v>
       </c>
       <c r="B1237" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C1237">
-        <v>300104</v>
+        <v>300113</v>
       </c>
       <c r="D1237">
         <v>1</v>
       </c>
       <c r="E1237">
-        <v>6</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1238" t="s">
-        <v>720</v>
+        <v>661</v>
       </c>
       <c r="B1238" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C1238">
         <v>300126</v>
@@ -23611,270 +23611,270 @@
         <v>1</v>
       </c>
       <c r="E1238">
-        <v>4</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1239" t="s">
-        <v>721</v>
+        <v>661</v>
       </c>
       <c r="B1239" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="C1239">
-        <v>300107</v>
+        <v>300114</v>
       </c>
       <c r="D1239">
         <v>1</v>
       </c>
       <c r="E1239">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1240" t="s">
-        <v>722</v>
+        <v>663</v>
       </c>
       <c r="B1240" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C1240">
-        <v>300108</v>
+        <v>300103</v>
       </c>
       <c r="D1240">
         <v>1</v>
       </c>
       <c r="E1240">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1241" t="s">
-        <v>723</v>
+        <v>663</v>
       </c>
       <c r="B1241" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C1241">
-        <v>300125</v>
+        <v>300104</v>
       </c>
       <c r="D1241">
         <v>1</v>
       </c>
       <c r="E1241">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1242" t="s">
-        <v>724</v>
+        <v>663</v>
       </c>
       <c r="B1242" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="C1242">
-        <v>300111</v>
+        <v>300126</v>
       </c>
       <c r="D1242">
         <v>1</v>
       </c>
       <c r="E1242">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1243" t="s">
-        <v>725</v>
+        <v>665</v>
       </c>
       <c r="B1243" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C1243">
-        <v>300112</v>
+        <v>300107</v>
       </c>
       <c r="D1243">
         <v>1</v>
       </c>
       <c r="E1243">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1244" t="s">
-        <v>726</v>
+        <v>665</v>
       </c>
       <c r="B1244" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C1244">
-        <v>300115</v>
+        <v>300108</v>
       </c>
       <c r="D1244">
         <v>1</v>
       </c>
       <c r="E1244">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1245" t="s">
-        <v>725</v>
+        <v>665</v>
       </c>
       <c r="B1245" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C1245">
-        <v>300124</v>
+        <v>300125</v>
       </c>
       <c r="D1245">
         <v>1</v>
       </c>
       <c r="E1245">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1246" t="s">
-        <v>727</v>
+        <v>667</v>
       </c>
       <c r="B1246" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C1246">
-        <v>300113</v>
+        <v>300111</v>
       </c>
       <c r="D1246">
         <v>1</v>
       </c>
       <c r="E1246">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1247" t="s">
-        <v>727</v>
+        <v>667</v>
       </c>
       <c r="B1247" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C1247">
-        <v>300122</v>
+        <v>300112</v>
       </c>
       <c r="D1247">
         <v>1</v>
       </c>
       <c r="E1247">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1248" t="s">
-        <v>728</v>
+        <v>667</v>
       </c>
       <c r="B1248" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C1248">
-        <v>300126</v>
+        <v>300115</v>
       </c>
       <c r="D1248">
         <v>1</v>
       </c>
       <c r="E1248">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1249" t="s">
-        <v>729</v>
+        <v>667</v>
       </c>
       <c r="B1249" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C1249">
-        <v>300102</v>
+        <v>300124</v>
       </c>
       <c r="D1249">
         <v>1</v>
       </c>
       <c r="E1249">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1250" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B1250" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C1250">
-        <v>300101</v>
+        <v>300113</v>
       </c>
       <c r="D1250">
         <v>1</v>
       </c>
       <c r="E1250">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1251" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="B1251" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="C1251">
-        <v>300101</v>
+        <v>300122</v>
       </c>
       <c r="D1251">
         <v>1</v>
       </c>
       <c r="E1251">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1252" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="B1252" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="C1252">
-        <v>300103</v>
+        <v>300126</v>
       </c>
       <c r="D1252">
         <v>1</v>
       </c>
       <c r="E1252">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1253" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="B1253" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="C1253">
-        <v>300107</v>
+        <v>300102</v>
       </c>
       <c r="D1253">
         <v>1</v>
       </c>
       <c r="E1253">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1254" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="B1254" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C1254">
         <v>300101</v>
@@ -23888,10 +23888,10 @@
     </row>
     <row r="1255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1255" t="s">
-        <v>675</v>
+        <v>718</v>
       </c>
       <c r="B1255" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
       <c r="C1255">
         <v>300103</v>
@@ -23905,64 +23905,64 @@
     </row>
     <row r="1256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1256" t="s">
-        <v>675</v>
+        <v>719</v>
       </c>
       <c r="B1256" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
       <c r="C1256">
-        <v>300107</v>
+        <v>300104</v>
       </c>
       <c r="D1256">
         <v>1</v>
       </c>
       <c r="E1256">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1257" t="s">
-        <v>675</v>
+        <v>720</v>
       </c>
       <c r="B1257" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
       <c r="C1257">
-        <v>300112</v>
+        <v>300126</v>
       </c>
       <c r="D1257">
         <v>1</v>
       </c>
       <c r="E1257">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1258" t="s">
-        <v>675</v>
+        <v>721</v>
       </c>
       <c r="B1258" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="C1258">
-        <v>300113</v>
+        <v>300107</v>
       </c>
       <c r="D1258">
         <v>1</v>
       </c>
       <c r="E1258">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1259" t="s">
-        <v>675</v>
+        <v>722</v>
       </c>
       <c r="B1259" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="C1259">
-        <v>300126</v>
+        <v>300108</v>
       </c>
       <c r="D1259">
         <v>1</v>
@@ -23973,302 +23973,302 @@
     </row>
     <row r="1260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1260" t="s">
-        <v>677</v>
+        <v>723</v>
       </c>
       <c r="B1260" t="s">
-        <v>678</v>
+        <v>666</v>
       </c>
       <c r="C1260">
-        <v>300102</v>
+        <v>300125</v>
       </c>
       <c r="D1260">
         <v>1</v>
       </c>
       <c r="E1260">
-        <v>100</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1261" t="s">
-        <v>677</v>
+        <v>724</v>
       </c>
       <c r="B1261" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="C1261">
-        <v>300122</v>
+        <v>300111</v>
       </c>
       <c r="D1261">
         <v>1</v>
       </c>
       <c r="E1261">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1262" t="s">
-        <v>677</v>
+        <v>725</v>
       </c>
       <c r="B1262" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="C1262">
-        <v>300125</v>
+        <v>300112</v>
       </c>
       <c r="D1262">
         <v>1</v>
       </c>
       <c r="E1262">
-        <v>100</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1263" t="s">
-        <v>677</v>
+        <v>726</v>
       </c>
       <c r="B1263" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="C1263">
-        <v>300126</v>
+        <v>300115</v>
       </c>
       <c r="D1263">
         <v>1</v>
       </c>
       <c r="E1263">
-        <v>100</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1264" t="s">
-        <v>679</v>
+        <v>725</v>
       </c>
       <c r="B1264" t="s">
-        <v>680</v>
-      </c>
-      <c r="C1264" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1264" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1264" t="s">
-        <v>7</v>
+        <v>668</v>
+      </c>
+      <c r="C1264">
+        <v>300124</v>
+      </c>
+      <c r="D1264">
+        <v>1</v>
+      </c>
+      <c r="E1264">
+        <v>1</v>
       </c>
     </row>
     <row r="1265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1265" t="s">
-        <v>681</v>
+        <v>727</v>
       </c>
       <c r="B1265" t="s">
-        <v>682</v>
-      </c>
-      <c r="C1265" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1265" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1265" t="s">
-        <v>7</v>
+        <v>670</v>
+      </c>
+      <c r="C1265">
+        <v>300113</v>
+      </c>
+      <c r="D1265">
+        <v>1</v>
+      </c>
+      <c r="E1265">
+        <v>8</v>
       </c>
     </row>
     <row r="1266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1266" t="s">
-        <v>683</v>
+        <v>727</v>
       </c>
       <c r="B1266" t="s">
-        <v>684</v>
-      </c>
-      <c r="C1266" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1266" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1266" t="s">
-        <v>7</v>
+        <v>670</v>
+      </c>
+      <c r="C1266">
+        <v>300122</v>
+      </c>
+      <c r="D1266">
+        <v>1</v>
+      </c>
+      <c r="E1266">
+        <v>2</v>
       </c>
     </row>
     <row r="1267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1267" t="s">
-        <v>685</v>
+        <v>728</v>
       </c>
       <c r="B1267" t="s">
-        <v>686</v>
-      </c>
-      <c r="C1267" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1267" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1267" t="s">
-        <v>7</v>
+        <v>670</v>
+      </c>
+      <c r="C1267">
+        <v>300126</v>
+      </c>
+      <c r="D1267">
+        <v>1</v>
+      </c>
+      <c r="E1267">
+        <v>4</v>
       </c>
     </row>
     <row r="1268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1268" t="s">
-        <v>687</v>
+        <v>729</v>
       </c>
       <c r="B1268" t="s">
-        <v>688</v>
-      </c>
-      <c r="C1268" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1268" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1268" t="s">
-        <v>7</v>
+        <v>670</v>
+      </c>
+      <c r="C1268">
+        <v>300102</v>
+      </c>
+      <c r="D1268">
+        <v>1</v>
+      </c>
+      <c r="E1268">
+        <v>8</v>
       </c>
     </row>
     <row r="1269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1269" t="s">
-        <v>689</v>
+        <v>671</v>
       </c>
       <c r="B1269" t="s">
-        <v>690</v>
-      </c>
-      <c r="C1269" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1269" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1269" t="s">
-        <v>7</v>
+        <v>672</v>
+      </c>
+      <c r="C1269">
+        <v>300101</v>
+      </c>
+      <c r="D1269">
+        <v>1</v>
+      </c>
+      <c r="E1269">
+        <v>10</v>
       </c>
     </row>
     <row r="1270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1270" t="s">
-        <v>691</v>
+        <v>673</v>
       </c>
       <c r="B1270" t="s">
-        <v>692</v>
-      </c>
-      <c r="C1270" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1270" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1270" t="s">
-        <v>7</v>
+        <v>674</v>
+      </c>
+      <c r="C1270">
+        <v>300101</v>
+      </c>
+      <c r="D1270">
+        <v>1</v>
+      </c>
+      <c r="E1270">
+        <v>10</v>
       </c>
     </row>
     <row r="1271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1271" t="s">
-        <v>693</v>
+        <v>673</v>
       </c>
       <c r="B1271" t="s">
-        <v>694</v>
-      </c>
-      <c r="C1271" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1271" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1271" t="s">
-        <v>7</v>
+        <v>674</v>
+      </c>
+      <c r="C1271">
+        <v>300103</v>
+      </c>
+      <c r="D1271">
+        <v>1</v>
+      </c>
+      <c r="E1271">
+        <v>10</v>
       </c>
     </row>
     <row r="1272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1272" t="s">
-        <v>695</v>
+        <v>673</v>
       </c>
       <c r="B1272" t="s">
-        <v>696</v>
-      </c>
-      <c r="C1272" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1272" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1272" t="s">
-        <v>7</v>
+        <v>674</v>
+      </c>
+      <c r="C1272">
+        <v>300107</v>
+      </c>
+      <c r="D1272">
+        <v>1</v>
+      </c>
+      <c r="E1272">
+        <v>10</v>
       </c>
     </row>
     <row r="1273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1273" t="s">
-        <v>697</v>
+        <v>675</v>
       </c>
       <c r="B1273" t="s">
-        <v>698</v>
-      </c>
-      <c r="C1273" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1273" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1273" t="s">
-        <v>7</v>
+        <v>676</v>
+      </c>
+      <c r="C1273">
+        <v>300101</v>
+      </c>
+      <c r="D1273">
+        <v>1</v>
+      </c>
+      <c r="E1273">
+        <v>10</v>
       </c>
     </row>
     <row r="1274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1274" t="s">
-        <v>699</v>
+        <v>675</v>
       </c>
       <c r="B1274" t="s">
-        <v>700</v>
-      </c>
-      <c r="C1274" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1274" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1274" t="s">
-        <v>7</v>
+        <v>676</v>
+      </c>
+      <c r="C1274">
+        <v>300103</v>
+      </c>
+      <c r="D1274">
+        <v>1</v>
+      </c>
+      <c r="E1274">
+        <v>10</v>
       </c>
     </row>
     <row r="1275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1275" t="s">
-        <v>701</v>
+        <v>675</v>
       </c>
       <c r="B1275" t="s">
-        <v>702</v>
-      </c>
-      <c r="C1275" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1275" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1275" t="s">
-        <v>7</v>
+        <v>676</v>
+      </c>
+      <c r="C1275">
+        <v>300107</v>
+      </c>
+      <c r="D1275">
+        <v>1</v>
+      </c>
+      <c r="E1275">
+        <v>10</v>
       </c>
     </row>
     <row r="1276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1276" t="s">
-        <v>703</v>
+        <v>675</v>
       </c>
       <c r="B1276" t="s">
-        <v>704</v>
-      </c>
-      <c r="C1276" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1276" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1276" t="s">
-        <v>7</v>
+        <v>676</v>
+      </c>
+      <c r="C1276">
+        <v>300112</v>
+      </c>
+      <c r="D1276">
+        <v>1</v>
+      </c>
+      <c r="E1276">
+        <v>5</v>
       </c>
     </row>
     <row r="1277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1277" t="s">
-        <v>705</v>
+        <v>675</v>
       </c>
       <c r="B1277" t="s">
-        <v>706</v>
+        <v>676</v>
       </c>
       <c r="C1277">
-        <v>300104</v>
+        <v>300113</v>
       </c>
       <c r="D1277">
         <v>1</v>
@@ -24279,137 +24279,460 @@
     </row>
     <row r="1278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1278" t="s">
-        <v>705</v>
+        <v>675</v>
       </c>
       <c r="B1278" t="s">
-        <v>706</v>
+        <v>676</v>
       </c>
       <c r="C1278">
-        <v>300108</v>
+        <v>300126</v>
       </c>
       <c r="D1278">
         <v>1</v>
       </c>
       <c r="E1278">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1279" t="s">
-        <v>705</v>
+        <v>677</v>
       </c>
       <c r="B1279" t="s">
-        <v>706</v>
+        <v>678</v>
       </c>
       <c r="C1279">
-        <v>300116</v>
+        <v>300102</v>
       </c>
       <c r="D1279">
         <v>1</v>
       </c>
       <c r="E1279">
-        <v>8</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1280" t="s">
-        <v>705</v>
+        <v>677</v>
       </c>
       <c r="B1280" t="s">
-        <v>706</v>
+        <v>678</v>
       </c>
       <c r="C1280">
-        <v>300117</v>
+        <v>300122</v>
       </c>
       <c r="D1280">
         <v>1</v>
       </c>
       <c r="E1280">
-        <v>8</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1281" t="s">
-        <v>707</v>
+        <v>677</v>
       </c>
       <c r="B1281" t="s">
-        <v>708</v>
+        <v>678</v>
       </c>
       <c r="C1281">
-        <v>300106</v>
+        <v>300125</v>
       </c>
       <c r="D1281">
         <v>1</v>
       </c>
       <c r="E1281">
-        <v>5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1282" t="s">
-        <v>707</v>
+        <v>677</v>
       </c>
       <c r="B1282" t="s">
-        <v>708</v>
+        <v>678</v>
       </c>
       <c r="C1282">
-        <v>300110</v>
+        <v>300126</v>
       </c>
       <c r="D1282">
         <v>1</v>
       </c>
       <c r="E1282">
-        <v>5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1283" t="s">
-        <v>707</v>
+        <v>679</v>
       </c>
       <c r="B1283" t="s">
-        <v>708</v>
-      </c>
-      <c r="C1283">
-        <v>300111</v>
-      </c>
-      <c r="D1283">
-        <v>1</v>
-      </c>
-      <c r="E1283">
-        <v>8</v>
+        <v>680</v>
+      </c>
+      <c r="C1283" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1283" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1283" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="1284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1284" t="s">
-        <v>707</v>
+        <v>681</v>
       </c>
       <c r="B1284" t="s">
-        <v>708</v>
-      </c>
-      <c r="C1284">
-        <v>300120</v>
-      </c>
-      <c r="D1284">
-        <v>1</v>
-      </c>
-      <c r="E1284">
-        <v>8</v>
+        <v>682</v>
+      </c>
+      <c r="C1284" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1284" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1284" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="1285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1285" t="s">
+        <v>683</v>
+      </c>
+      <c r="B1285" t="s">
+        <v>684</v>
+      </c>
+      <c r="C1285" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1285" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1285" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1286" t="s">
+        <v>685</v>
+      </c>
+      <c r="B1286" t="s">
+        <v>686</v>
+      </c>
+      <c r="C1286" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1286" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1286" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1287" t="s">
+        <v>687</v>
+      </c>
+      <c r="B1287" t="s">
+        <v>688</v>
+      </c>
+      <c r="C1287" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1287" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1287" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1288" t="s">
+        <v>689</v>
+      </c>
+      <c r="B1288" t="s">
+        <v>690</v>
+      </c>
+      <c r="C1288" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1288" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1288" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1289" t="s">
+        <v>691</v>
+      </c>
+      <c r="B1289" t="s">
+        <v>692</v>
+      </c>
+      <c r="C1289" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1289" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1289" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1290" t="s">
+        <v>693</v>
+      </c>
+      <c r="B1290" t="s">
+        <v>694</v>
+      </c>
+      <c r="C1290" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1290" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1290" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1291" t="s">
+        <v>695</v>
+      </c>
+      <c r="B1291" t="s">
+        <v>696</v>
+      </c>
+      <c r="C1291" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1291" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1291" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1292" t="s">
+        <v>697</v>
+      </c>
+      <c r="B1292" t="s">
+        <v>698</v>
+      </c>
+      <c r="C1292" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1292" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1292" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1293" t="s">
+        <v>699</v>
+      </c>
+      <c r="B1293" t="s">
+        <v>700</v>
+      </c>
+      <c r="C1293" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1293" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1293" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1294" t="s">
+        <v>701</v>
+      </c>
+      <c r="B1294" t="s">
+        <v>702</v>
+      </c>
+      <c r="C1294" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1294" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1294" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1295" t="s">
+        <v>703</v>
+      </c>
+      <c r="B1295" t="s">
+        <v>704</v>
+      </c>
+      <c r="C1295" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1295" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1295" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1296" t="s">
+        <v>705</v>
+      </c>
+      <c r="B1296" t="s">
+        <v>706</v>
+      </c>
+      <c r="C1296">
+        <v>300104</v>
+      </c>
+      <c r="D1296">
+        <v>1</v>
+      </c>
+      <c r="E1296">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1297" t="s">
+        <v>705</v>
+      </c>
+      <c r="B1297" t="s">
+        <v>706</v>
+      </c>
+      <c r="C1297">
+        <v>300108</v>
+      </c>
+      <c r="D1297">
+        <v>1</v>
+      </c>
+      <c r="E1297">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1298" t="s">
+        <v>705</v>
+      </c>
+      <c r="B1298" t="s">
+        <v>706</v>
+      </c>
+      <c r="C1298">
+        <v>300116</v>
+      </c>
+      <c r="D1298">
+        <v>1</v>
+      </c>
+      <c r="E1298">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1299" t="s">
+        <v>705</v>
+      </c>
+      <c r="B1299" t="s">
+        <v>706</v>
+      </c>
+      <c r="C1299">
+        <v>300117</v>
+      </c>
+      <c r="D1299">
+        <v>1</v>
+      </c>
+      <c r="E1299">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1300" t="s">
         <v>707</v>
       </c>
-      <c r="B1285" t="s">
+      <c r="B1300" t="s">
         <v>708</v>
       </c>
-      <c r="C1285">
+      <c r="C1300">
+        <v>300106</v>
+      </c>
+      <c r="D1300">
+        <v>1</v>
+      </c>
+      <c r="E1300">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1301" t="s">
+        <v>707</v>
+      </c>
+      <c r="B1301" t="s">
+        <v>708</v>
+      </c>
+      <c r="C1301">
+        <v>300110</v>
+      </c>
+      <c r="D1301">
+        <v>1</v>
+      </c>
+      <c r="E1301">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1302" t="s">
+        <v>707</v>
+      </c>
+      <c r="B1302" t="s">
+        <v>708</v>
+      </c>
+      <c r="C1302">
+        <v>300111</v>
+      </c>
+      <c r="D1302">
+        <v>1</v>
+      </c>
+      <c r="E1302">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1303" t="s">
+        <v>707</v>
+      </c>
+      <c r="B1303" t="s">
+        <v>708</v>
+      </c>
+      <c r="C1303">
+        <v>300120</v>
+      </c>
+      <c r="D1303">
+        <v>1</v>
+      </c>
+      <c r="E1303">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1304" t="s">
+        <v>707</v>
+      </c>
+      <c r="B1304" t="s">
+        <v>708</v>
+      </c>
+      <c r="C1304">
         <v>300125</v>
       </c>
-      <c r="D1285">
-        <v>1</v>
-      </c>
-      <c r="E1285">
+      <c r="D1304">
+        <v>1</v>
+      </c>
+      <c r="E1304">
         <v>5</v>
       </c>
     </row>
